--- a/assets/templates/import-title-template-admin.xlsx
+++ b/assets/templates/import-title-template-admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F4865C-BAAE-E141-9721-A971970F5E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09E9BF-CB1D-4948-9CE1-968881019F23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24200" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-5840" windowWidth="51200" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Film metadata" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="577">
   <si>
     <t>Instructions:</t>
   </si>
@@ -2478,6 +2478,24 @@
   </si>
   <si>
     <t>Owner User Id</t>
+  </si>
+  <si>
+    <t>Wildlife</t>
+  </si>
+  <si>
+    <t>Nature &amp; Environment</t>
+  </si>
+  <si>
+    <t>Hunting &amp; Fishing</t>
+  </si>
+  <si>
+    <t>Archeology &amp; History</t>
+  </si>
+  <si>
+    <t>Travel &amp; Discovery</t>
+  </si>
+  <si>
+    <t>Fashion</t>
   </si>
 </sst>
 </file>
@@ -3044,22 +3062,52 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3077,46 +3125,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3504,10 +3522,10 @@
   <dimension ref="A1:AMD959"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="14" topLeftCell="BA15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="14" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="BI15" sqref="BI15:BI24"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3703,14 +3721,14 @@
       <c r="AK4" s="9"/>
     </row>
     <row r="5" spans="1:1016" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="77" t="s">
         <v>562</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -3744,14 +3762,14 @@
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:1016" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="79" t="s">
         <v>565</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3940,44 +3958,44 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
     </row>
     <row r="12" spans="1:1016" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
@@ -4241,26 +4259,26 @@
       <c r="BG14" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="BH14" s="88" t="s">
+      <c r="BH14" s="68" t="s">
         <v>568</v>
       </c>
-      <c r="BI14" s="88" t="s">
+      <c r="BI14" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="BJ14" s="88" t="s">
+      <c r="BJ14" s="68" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:1016" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="82"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
       <c r="L15" s="65"/>
@@ -4275,7 +4293,7 @@
       <c r="U15" s="65"/>
       <c r="V15" s="65"/>
       <c r="W15" s="83"/>
-      <c r="X15" s="81"/>
+      <c r="X15" s="75"/>
       <c r="Y15" s="65"/>
       <c r="Z15" s="65"/>
       <c r="AA15" s="65"/>
@@ -4283,8 +4301,8 @@
       <c r="AC15" s="66"/>
       <c r="AD15" s="65"/>
       <c r="AE15" s="65"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
       <c r="AH15" s="65"/>
       <c r="AI15" s="65"/>
       <c r="AJ15" s="65"/>
@@ -4292,7 +4310,7 @@
       <c r="AL15" s="65"/>
       <c r="AM15" s="65"/>
       <c r="AN15" s="65"/>
-      <c r="AO15" s="81"/>
+      <c r="AO15" s="75"/>
       <c r="AP15" s="65"/>
       <c r="AQ15" s="65"/>
       <c r="AR15" s="65"/>
@@ -4302,18 +4320,18 @@
       <c r="AV15" s="65"/>
       <c r="AW15" s="65"/>
       <c r="AX15" s="67"/>
-      <c r="AY15" s="81"/>
-      <c r="AZ15" s="81"/>
-      <c r="BA15" s="81"/>
-      <c r="BB15" s="81"/>
-      <c r="BC15" s="72"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
+      <c r="BB15" s="75"/>
+      <c r="BC15" s="76"/>
       <c r="BD15" s="65"/>
       <c r="BE15" s="65"/>
       <c r="BF15" s="65"/>
       <c r="BG15" s="65"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="73"/>
-      <c r="BJ15" s="89"/>
+      <c r="BH15" s="69"/>
+      <c r="BI15" s="71"/>
+      <c r="BJ15" s="70"/>
       <c r="BK15" s="39"/>
       <c r="BL15" s="39"/>
       <c r="BM15" s="39"/>
@@ -4366,15 +4384,15 @@
       <c r="DH15" s="39"/>
     </row>
     <row r="16" spans="1:1016" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="81"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="82"/>
-      <c r="I16" s="81"/>
+      <c r="I16" s="75"/>
       <c r="M16" s="65"/>
       <c r="N16" s="41"/>
       <c r="O16" s="65"/>
@@ -4386,36 +4404,36 @@
       <c r="U16" s="65"/>
       <c r="V16" s="43"/>
       <c r="W16" s="83"/>
-      <c r="X16" s="81"/>
+      <c r="X16" s="75"/>
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="65"/>
       <c r="AB16" s="65"/>
       <c r="AC16" s="42"/>
       <c r="AE16" s="65"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="81"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
       <c r="AH16" s="43"/>
       <c r="AK16" s="65"/>
       <c r="AN16" s="65"/>
-      <c r="AO16" s="81"/>
+      <c r="AO16" s="75"/>
       <c r="AP16" s="65"/>
       <c r="AQ16" s="65"/>
       <c r="AS16" s="65"/>
       <c r="AT16" s="65"/>
       <c r="AV16" s="43"/>
-      <c r="AY16" s="81"/>
-      <c r="AZ16" s="81"/>
-      <c r="BA16" s="81"/>
-      <c r="BB16" s="81"/>
-      <c r="BC16" s="72"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="75"/>
+      <c r="BA16" s="75"/>
+      <c r="BB16" s="75"/>
+      <c r="BC16" s="76"/>
       <c r="BD16" s="65"/>
       <c r="BE16" s="65"/>
       <c r="BF16" s="65"/>
       <c r="BG16" s="65"/>
-      <c r="BH16" s="89"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="89"/>
+      <c r="BH16" s="70"/>
+      <c r="BI16" s="70"/>
+      <c r="BJ16" s="70"/>
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
       <c r="BM16" s="44"/>
@@ -4468,15 +4486,15 @@
       <c r="DH16" s="44"/>
     </row>
     <row r="17" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="81"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="82"/>
-      <c r="I17" s="81"/>
+      <c r="I17" s="75"/>
       <c r="M17" s="65"/>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
@@ -4486,34 +4504,34 @@
       <c r="T17" s="65"/>
       <c r="U17" s="65"/>
       <c r="W17" s="83"/>
-      <c r="X17" s="81"/>
+      <c r="X17" s="75"/>
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
       <c r="AA17" s="65"/>
       <c r="AB17" s="65"/>
       <c r="AC17" s="42"/>
       <c r="AE17" s="65"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
       <c r="AK17" s="65"/>
       <c r="AN17" s="65"/>
-      <c r="AO17" s="81"/>
+      <c r="AO17" s="75"/>
       <c r="AP17" s="65"/>
       <c r="AQ17" s="65"/>
       <c r="AS17" s="65"/>
       <c r="AT17" s="65"/>
-      <c r="AY17" s="81"/>
-      <c r="AZ17" s="81"/>
-      <c r="BA17" s="81"/>
-      <c r="BB17" s="81"/>
-      <c r="BC17" s="72"/>
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="75"/>
+      <c r="BA17" s="75"/>
+      <c r="BB17" s="75"/>
+      <c r="BC17" s="76"/>
       <c r="BD17" s="65"/>
       <c r="BE17" s="65"/>
       <c r="BF17" s="65"/>
       <c r="BG17" s="65"/>
-      <c r="BH17" s="89"/>
-      <c r="BI17" s="89"/>
-      <c r="BJ17" s="89"/>
+      <c r="BH17" s="70"/>
+      <c r="BI17" s="70"/>
+      <c r="BJ17" s="70"/>
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
       <c r="BM17" s="44"/>
@@ -4566,15 +4584,15 @@
       <c r="DH17" s="44"/>
     </row>
     <row r="18" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="81"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="82"/>
-      <c r="I18" s="81"/>
+      <c r="I18" s="75"/>
       <c r="M18" s="65"/>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
@@ -4584,32 +4602,32 @@
       <c r="T18" s="65"/>
       <c r="U18" s="65"/>
       <c r="W18" s="83"/>
-      <c r="X18" s="81"/>
+      <c r="X18" s="75"/>
       <c r="AA18" s="65"/>
       <c r="AB18" s="65"/>
       <c r="AC18" s="42"/>
       <c r="AE18" s="65"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
       <c r="AK18" s="65"/>
       <c r="AN18" s="65"/>
-      <c r="AO18" s="81"/>
+      <c r="AO18" s="75"/>
       <c r="AP18" s="65"/>
       <c r="AQ18" s="65"/>
       <c r="AS18" s="65"/>
       <c r="AT18" s="65"/>
-      <c r="AY18" s="81"/>
-      <c r="AZ18" s="81"/>
-      <c r="BA18" s="81"/>
-      <c r="BB18" s="81"/>
-      <c r="BC18" s="72"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="76"/>
       <c r="BD18" s="65"/>
       <c r="BE18" s="65"/>
       <c r="BF18" s="65"/>
       <c r="BG18" s="65"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89"/>
+      <c r="BH18" s="70"/>
+      <c r="BI18" s="70"/>
+      <c r="BJ18" s="70"/>
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
       <c r="BM18" s="44"/>
@@ -4662,15 +4680,15 @@
       <c r="DH18" s="44"/>
     </row>
     <row r="19" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="81"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="82"/>
-      <c r="I19" s="81"/>
+      <c r="I19" s="75"/>
       <c r="M19" s="65"/>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
@@ -4680,32 +4698,32 @@
       <c r="T19" s="65"/>
       <c r="U19" s="65"/>
       <c r="W19" s="83"/>
-      <c r="X19" s="81"/>
+      <c r="X19" s="75"/>
       <c r="AA19" s="65"/>
       <c r="AB19" s="65"/>
       <c r="AC19" s="42"/>
       <c r="AE19" s="65"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
       <c r="AK19" s="65"/>
       <c r="AN19" s="65"/>
-      <c r="AO19" s="81"/>
+      <c r="AO19" s="75"/>
       <c r="AP19" s="65"/>
       <c r="AQ19" s="65"/>
       <c r="AS19" s="65"/>
       <c r="AT19" s="65"/>
-      <c r="AY19" s="81"/>
-      <c r="AZ19" s="81"/>
-      <c r="BA19" s="81"/>
-      <c r="BB19" s="81"/>
-      <c r="BC19" s="72"/>
+      <c r="AY19" s="75"/>
+      <c r="AZ19" s="75"/>
+      <c r="BA19" s="75"/>
+      <c r="BB19" s="75"/>
+      <c r="BC19" s="76"/>
       <c r="BD19" s="65"/>
       <c r="BE19" s="65"/>
       <c r="BF19" s="65"/>
       <c r="BG19" s="65"/>
-      <c r="BH19" s="89"/>
-      <c r="BI19" s="89"/>
-      <c r="BJ19" s="89"/>
+      <c r="BH19" s="70"/>
+      <c r="BI19" s="70"/>
+      <c r="BJ19" s="70"/>
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
       <c r="BM19" s="44"/>
@@ -4758,15 +4776,15 @@
       <c r="DH19" s="44"/>
     </row>
     <row r="20" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="81"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="82"/>
-      <c r="I20" s="81"/>
+      <c r="I20" s="75"/>
       <c r="M20" s="65"/>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
@@ -4776,32 +4794,32 @@
       <c r="T20" s="65"/>
       <c r="U20" s="65"/>
       <c r="W20" s="83"/>
-      <c r="X20" s="81"/>
+      <c r="X20" s="75"/>
       <c r="AA20" s="65"/>
       <c r="AB20" s="65"/>
       <c r="AC20" s="42"/>
       <c r="AE20" s="65"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
       <c r="AK20" s="65"/>
       <c r="AN20" s="65"/>
-      <c r="AO20" s="81"/>
+      <c r="AO20" s="75"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
       <c r="AS20" s="65"/>
       <c r="AT20" s="65"/>
-      <c r="AY20" s="81"/>
-      <c r="AZ20" s="81"/>
-      <c r="BA20" s="81"/>
-      <c r="BB20" s="81"/>
-      <c r="BC20" s="72"/>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="75"/>
+      <c r="BA20" s="75"/>
+      <c r="BB20" s="75"/>
+      <c r="BC20" s="76"/>
       <c r="BD20" s="65"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
-      <c r="BH20" s="89"/>
-      <c r="BI20" s="89"/>
-      <c r="BJ20" s="89"/>
+      <c r="BH20" s="70"/>
+      <c r="BI20" s="70"/>
+      <c r="BJ20" s="70"/>
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
       <c r="BM20" s="44"/>
@@ -4854,15 +4872,15 @@
       <c r="DH20" s="44"/>
     </row>
     <row r="21" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="81"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="82"/>
-      <c r="I21" s="81"/>
+      <c r="I21" s="75"/>
       <c r="M21" s="65"/>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
@@ -4872,32 +4890,32 @@
       <c r="T21" s="65"/>
       <c r="U21" s="65"/>
       <c r="W21" s="83"/>
-      <c r="X21" s="81"/>
+      <c r="X21" s="75"/>
       <c r="AA21" s="65"/>
       <c r="AB21" s="65"/>
       <c r="AC21" s="42"/>
       <c r="AE21" s="65"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
       <c r="AK21" s="65"/>
       <c r="AN21" s="65"/>
-      <c r="AO21" s="81"/>
+      <c r="AO21" s="75"/>
       <c r="AP21" s="65"/>
       <c r="AQ21" s="65"/>
       <c r="AS21" s="65"/>
       <c r="AT21" s="65"/>
-      <c r="AY21" s="81"/>
-      <c r="AZ21" s="81"/>
-      <c r="BA21" s="81"/>
-      <c r="BB21" s="81"/>
-      <c r="BC21" s="72"/>
+      <c r="AY21" s="75"/>
+      <c r="AZ21" s="75"/>
+      <c r="BA21" s="75"/>
+      <c r="BB21" s="75"/>
+      <c r="BC21" s="76"/>
       <c r="BD21" s="65"/>
       <c r="BE21" s="65"/>
       <c r="BF21" s="65"/>
       <c r="BG21" s="65"/>
-      <c r="BH21" s="89"/>
-      <c r="BI21" s="89"/>
-      <c r="BJ21" s="89"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="70"/>
+      <c r="BJ21" s="70"/>
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
       <c r="BM21" s="44"/>
@@ -4950,15 +4968,15 @@
       <c r="DH21" s="44"/>
     </row>
     <row r="22" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="81"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="82"/>
-      <c r="I22" s="81"/>
+      <c r="I22" s="75"/>
       <c r="M22" s="65"/>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
@@ -4968,32 +4986,32 @@
       <c r="T22" s="65"/>
       <c r="U22" s="65"/>
       <c r="W22" s="83"/>
-      <c r="X22" s="81"/>
+      <c r="X22" s="75"/>
       <c r="AA22" s="65"/>
       <c r="AB22" s="65"/>
       <c r="AC22" s="42"/>
       <c r="AE22" s="65"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
       <c r="AK22" s="65"/>
       <c r="AN22" s="65"/>
-      <c r="AO22" s="81"/>
+      <c r="AO22" s="75"/>
       <c r="AP22" s="65"/>
       <c r="AQ22" s="65"/>
       <c r="AS22" s="65"/>
       <c r="AT22" s="65"/>
-      <c r="AY22" s="81"/>
-      <c r="AZ22" s="81"/>
-      <c r="BA22" s="81"/>
-      <c r="BB22" s="81"/>
-      <c r="BC22" s="72"/>
+      <c r="AY22" s="75"/>
+      <c r="AZ22" s="75"/>
+      <c r="BA22" s="75"/>
+      <c r="BB22" s="75"/>
+      <c r="BC22" s="76"/>
       <c r="BD22" s="65"/>
       <c r="BE22" s="65"/>
       <c r="BF22" s="65"/>
       <c r="BG22" s="65"/>
-      <c r="BH22" s="89"/>
-      <c r="BI22" s="89"/>
-      <c r="BJ22" s="89"/>
+      <c r="BH22" s="70"/>
+      <c r="BI22" s="70"/>
+      <c r="BJ22" s="70"/>
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
       <c r="BM22" s="44"/>
@@ -5046,15 +5064,15 @@
       <c r="DH22" s="44"/>
     </row>
     <row r="23" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="81"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="82"/>
-      <c r="I23" s="81"/>
+      <c r="I23" s="75"/>
       <c r="M23" s="65"/>
       <c r="O23" s="65"/>
       <c r="P23" s="65"/>
@@ -5064,32 +5082,32 @@
       <c r="T23" s="65"/>
       <c r="U23" s="65"/>
       <c r="W23" s="83"/>
-      <c r="X23" s="81"/>
+      <c r="X23" s="75"/>
       <c r="AA23" s="65"/>
       <c r="AB23" s="65"/>
       <c r="AC23" s="42"/>
       <c r="AE23" s="65"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
       <c r="AK23" s="65"/>
       <c r="AN23" s="65"/>
-      <c r="AO23" s="81"/>
+      <c r="AO23" s="75"/>
       <c r="AP23" s="65"/>
       <c r="AQ23" s="65"/>
       <c r="AS23" s="65"/>
       <c r="AT23" s="65"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="72"/>
+      <c r="AY23" s="75"/>
+      <c r="AZ23" s="75"/>
+      <c r="BA23" s="75"/>
+      <c r="BB23" s="75"/>
+      <c r="BC23" s="76"/>
       <c r="BD23" s="65"/>
       <c r="BE23" s="65"/>
       <c r="BF23" s="65"/>
       <c r="BG23" s="65"/>
-      <c r="BH23" s="89"/>
-      <c r="BI23" s="89"/>
-      <c r="BJ23" s="89"/>
+      <c r="BH23" s="70"/>
+      <c r="BI23" s="70"/>
+      <c r="BJ23" s="70"/>
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
       <c r="BM23" s="44"/>
@@ -5142,15 +5160,15 @@
       <c r="DH23" s="44"/>
     </row>
     <row r="24" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="81"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="82"/>
-      <c r="I24" s="81"/>
+      <c r="I24" s="75"/>
       <c r="M24" s="65"/>
       <c r="O24" s="65"/>
       <c r="P24" s="65"/>
@@ -5160,32 +5178,32 @@
       <c r="T24" s="65"/>
       <c r="U24" s="65"/>
       <c r="W24" s="83"/>
-      <c r="X24" s="81"/>
+      <c r="X24" s="75"/>
       <c r="AA24" s="65"/>
       <c r="AB24" s="65"/>
       <c r="AC24" s="42"/>
       <c r="AE24" s="65"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
       <c r="AK24" s="65"/>
       <c r="AN24" s="65"/>
-      <c r="AO24" s="81"/>
+      <c r="AO24" s="75"/>
       <c r="AP24" s="65"/>
       <c r="AQ24" s="65"/>
       <c r="AS24" s="65"/>
       <c r="AT24" s="65"/>
-      <c r="AY24" s="81"/>
-      <c r="AZ24" s="81"/>
-      <c r="BA24" s="81"/>
-      <c r="BB24" s="81"/>
-      <c r="BC24" s="72"/>
+      <c r="AY24" s="75"/>
+      <c r="AZ24" s="75"/>
+      <c r="BA24" s="75"/>
+      <c r="BB24" s="75"/>
+      <c r="BC24" s="76"/>
       <c r="BD24" s="65"/>
       <c r="BE24" s="65"/>
       <c r="BF24" s="65"/>
       <c r="BG24" s="65"/>
-      <c r="BH24" s="89"/>
-      <c r="BI24" s="89"/>
-      <c r="BJ24" s="89"/>
+      <c r="BH24" s="70"/>
+      <c r="BI24" s="70"/>
+      <c r="BJ24" s="70"/>
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
       <c r="BM24" s="44"/>
@@ -5238,15 +5256,15 @@
       <c r="DH24" s="44"/>
     </row>
     <row r="25" spans="1:1018" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="75"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
       <c r="L25" s="45"/>
@@ -5260,8 +5278,8 @@
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
       <c r="V25" s="45"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="75"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="85"/>
       <c r="Y25" s="45"/>
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
@@ -5269,8 +5287,8 @@
       <c r="AC25" s="46"/>
       <c r="AD25" s="45"/>
       <c r="AE25" s="45"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="75"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
       <c r="AH25" s="45"/>
       <c r="AI25" s="45"/>
       <c r="AJ25" s="45"/>
@@ -5278,7 +5296,7 @@
       <c r="AL25" s="45"/>
       <c r="AM25" s="45"/>
       <c r="AN25" s="45"/>
-      <c r="AO25" s="75"/>
+      <c r="AO25" s="85"/>
       <c r="AP25" s="45"/>
       <c r="AQ25" s="45"/>
       <c r="AR25" s="45"/>
@@ -5286,18 +5304,18 @@
       <c r="AT25" s="45"/>
       <c r="AV25" s="45"/>
       <c r="AW25" s="45"/>
-      <c r="AY25" s="75"/>
-      <c r="AZ25" s="75"/>
-      <c r="BA25" s="75"/>
-      <c r="BB25" s="75"/>
-      <c r="BC25" s="69"/>
+      <c r="AY25" s="85"/>
+      <c r="AZ25" s="85"/>
+      <c r="BA25" s="85"/>
+      <c r="BB25" s="85"/>
+      <c r="BC25" s="81"/>
       <c r="BD25" s="45"/>
       <c r="BE25" s="45"/>
       <c r="BF25" s="45"/>
       <c r="BG25" s="45"/>
-      <c r="BH25" s="90"/>
-      <c r="BI25" s="91"/>
-      <c r="BJ25" s="92"/>
+      <c r="BH25" s="72"/>
+      <c r="BI25" s="74"/>
+      <c r="BJ25" s="73"/>
       <c r="BK25" s="49"/>
       <c r="BL25" s="49"/>
       <c r="BM25" s="49"/>
@@ -5354,15 +5372,15 @@
       <c r="AMD25" s="50"/>
     </row>
     <row r="26" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="75"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="85"/>
       <c r="M26" s="45"/>
       <c r="N26" s="52"/>
       <c r="O26" s="45"/>
@@ -5373,37 +5391,37 @@
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="54"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="75"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="85"/>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
       <c r="AA26" s="45"/>
       <c r="AB26" s="45"/>
       <c r="AC26" s="53"/>
       <c r="AE26" s="45"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="75"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="85"/>
       <c r="AH26" s="54"/>
       <c r="AK26" s="45"/>
       <c r="AN26" s="45"/>
-      <c r="AO26" s="75"/>
+      <c r="AO26" s="85"/>
       <c r="AP26" s="45"/>
       <c r="AQ26" s="45"/>
       <c r="AS26" s="45"/>
       <c r="AT26" s="45"/>
       <c r="AV26" s="54"/>
-      <c r="AY26" s="75"/>
-      <c r="AZ26" s="75"/>
-      <c r="BA26" s="75"/>
-      <c r="BB26" s="75"/>
-      <c r="BC26" s="69"/>
+      <c r="AY26" s="85"/>
+      <c r="AZ26" s="85"/>
+      <c r="BA26" s="85"/>
+      <c r="BB26" s="85"/>
+      <c r="BC26" s="81"/>
       <c r="BD26" s="45"/>
       <c r="BE26" s="45"/>
       <c r="BF26" s="45"/>
       <c r="BG26" s="45"/>
-      <c r="BH26" s="92"/>
-      <c r="BI26" s="92"/>
-      <c r="BJ26" s="92"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
       <c r="BK26" s="55"/>
       <c r="BL26" s="55"/>
       <c r="BM26" s="55"/>
@@ -5460,15 +5478,15 @@
       <c r="AMD26" s="50"/>
     </row>
     <row r="27" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="75"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="85"/>
       <c r="M27" s="45"/>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
@@ -5477,35 +5495,35 @@
       <c r="S27" s="53"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="75"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="85"/>
       <c r="Y27" s="54"/>
       <c r="Z27" s="54"/>
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
       <c r="AC27" s="53"/>
       <c r="AE27" s="45"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="75"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="85"/>
       <c r="AK27" s="45"/>
       <c r="AN27" s="45"/>
-      <c r="AO27" s="75"/>
+      <c r="AO27" s="85"/>
       <c r="AP27" s="45"/>
       <c r="AQ27" s="45"/>
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
-      <c r="AY27" s="75"/>
-      <c r="AZ27" s="75"/>
-      <c r="BA27" s="75"/>
-      <c r="BB27" s="75"/>
-      <c r="BC27" s="69"/>
+      <c r="AY27" s="85"/>
+      <c r="AZ27" s="85"/>
+      <c r="BA27" s="85"/>
+      <c r="BB27" s="85"/>
+      <c r="BC27" s="81"/>
       <c r="BD27" s="45"/>
       <c r="BE27" s="45"/>
       <c r="BF27" s="45"/>
       <c r="BG27" s="45"/>
-      <c r="BH27" s="92"/>
-      <c r="BI27" s="92"/>
-      <c r="BJ27" s="92"/>
+      <c r="BH27" s="73"/>
+      <c r="BI27" s="73"/>
+      <c r="BJ27" s="73"/>
       <c r="BK27" s="55"/>
       <c r="BL27" s="55"/>
       <c r="BM27" s="55"/>
@@ -5562,15 +5580,15 @@
       <c r="AMD27" s="50"/>
     </row>
     <row r="28" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="75"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="85"/>
       <c r="M28" s="45"/>
       <c r="O28" s="45"/>
       <c r="P28" s="45"/>
@@ -5579,33 +5597,33 @@
       <c r="S28" s="53"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="75"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="85"/>
       <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
       <c r="AC28" s="53"/>
       <c r="AE28" s="45"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="75"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
       <c r="AK28" s="45"/>
       <c r="AN28" s="45"/>
-      <c r="AO28" s="75"/>
+      <c r="AO28" s="85"/>
       <c r="AP28" s="45"/>
       <c r="AQ28" s="45"/>
       <c r="AS28" s="45"/>
       <c r="AT28" s="45"/>
-      <c r="AY28" s="75"/>
-      <c r="AZ28" s="75"/>
-      <c r="BA28" s="75"/>
-      <c r="BB28" s="75"/>
-      <c r="BC28" s="69"/>
+      <c r="AY28" s="85"/>
+      <c r="AZ28" s="85"/>
+      <c r="BA28" s="85"/>
+      <c r="BB28" s="85"/>
+      <c r="BC28" s="81"/>
       <c r="BD28" s="45"/>
       <c r="BE28" s="45"/>
       <c r="BF28" s="45"/>
       <c r="BG28" s="45"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
+      <c r="BH28" s="73"/>
+      <c r="BI28" s="73"/>
+      <c r="BJ28" s="73"/>
       <c r="BK28" s="55"/>
       <c r="BL28" s="55"/>
       <c r="BM28" s="55"/>
@@ -5662,15 +5680,15 @@
       <c r="AMD28" s="50"/>
     </row>
     <row r="29" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="75"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="85"/>
       <c r="M29" s="45"/>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
@@ -5679,33 +5697,33 @@
       <c r="S29" s="53"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="75"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="85"/>
       <c r="AA29" s="45"/>
       <c r="AB29" s="45"/>
       <c r="AC29" s="53"/>
       <c r="AE29" s="45"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="75"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="85"/>
       <c r="AK29" s="45"/>
       <c r="AN29" s="45"/>
-      <c r="AO29" s="75"/>
+      <c r="AO29" s="85"/>
       <c r="AP29" s="45"/>
       <c r="AQ29" s="45"/>
       <c r="AS29" s="45"/>
       <c r="AT29" s="45"/>
-      <c r="AY29" s="75"/>
-      <c r="AZ29" s="75"/>
-      <c r="BA29" s="75"/>
-      <c r="BB29" s="75"/>
-      <c r="BC29" s="69"/>
+      <c r="AY29" s="85"/>
+      <c r="AZ29" s="85"/>
+      <c r="BA29" s="85"/>
+      <c r="BB29" s="85"/>
+      <c r="BC29" s="81"/>
       <c r="BD29" s="45"/>
       <c r="BE29" s="45"/>
       <c r="BF29" s="45"/>
       <c r="BG29" s="45"/>
-      <c r="BH29" s="92"/>
-      <c r="BI29" s="92"/>
-      <c r="BJ29" s="92"/>
+      <c r="BH29" s="73"/>
+      <c r="BI29" s="73"/>
+      <c r="BJ29" s="73"/>
       <c r="BK29" s="55"/>
       <c r="BL29" s="55"/>
       <c r="BM29" s="55"/>
@@ -5762,15 +5780,15 @@
       <c r="AMD29" s="50"/>
     </row>
     <row r="30" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="75"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="85"/>
       <c r="M30" s="45"/>
       <c r="O30" s="45"/>
       <c r="P30" s="45"/>
@@ -5779,33 +5797,33 @@
       <c r="S30" s="53"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="75"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="85"/>
       <c r="AA30" s="45"/>
       <c r="AB30" s="45"/>
       <c r="AC30" s="53"/>
       <c r="AE30" s="45"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="75"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
       <c r="AK30" s="45"/>
       <c r="AN30" s="45"/>
-      <c r="AO30" s="75"/>
+      <c r="AO30" s="85"/>
       <c r="AP30" s="45"/>
       <c r="AQ30" s="45"/>
       <c r="AS30" s="45"/>
       <c r="AT30" s="45"/>
-      <c r="AY30" s="75"/>
-      <c r="AZ30" s="75"/>
-      <c r="BA30" s="75"/>
-      <c r="BB30" s="75"/>
-      <c r="BC30" s="69"/>
+      <c r="AY30" s="85"/>
+      <c r="AZ30" s="85"/>
+      <c r="BA30" s="85"/>
+      <c r="BB30" s="85"/>
+      <c r="BC30" s="81"/>
       <c r="BD30" s="45"/>
       <c r="BE30" s="45"/>
       <c r="BF30" s="45"/>
       <c r="BG30" s="45"/>
-      <c r="BH30" s="92"/>
-      <c r="BI30" s="92"/>
-      <c r="BJ30" s="92"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="73"/>
       <c r="BK30" s="55"/>
       <c r="BL30" s="55"/>
       <c r="BM30" s="55"/>
@@ -5862,15 +5880,15 @@
       <c r="AMD30" s="50"/>
     </row>
     <row r="31" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="75"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="85"/>
       <c r="M31" s="45"/>
       <c r="O31" s="45"/>
       <c r="P31" s="45"/>
@@ -5879,33 +5897,33 @@
       <c r="S31" s="53"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="75"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="85"/>
       <c r="AA31" s="45"/>
       <c r="AB31" s="45"/>
       <c r="AC31" s="53"/>
       <c r="AE31" s="45"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="75"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="85"/>
       <c r="AK31" s="45"/>
       <c r="AN31" s="45"/>
-      <c r="AO31" s="75"/>
+      <c r="AO31" s="85"/>
       <c r="AP31" s="45"/>
       <c r="AQ31" s="45"/>
       <c r="AS31" s="45"/>
       <c r="AT31" s="45"/>
-      <c r="AY31" s="75"/>
-      <c r="AZ31" s="75"/>
-      <c r="BA31" s="75"/>
-      <c r="BB31" s="75"/>
-      <c r="BC31" s="69"/>
+      <c r="AY31" s="85"/>
+      <c r="AZ31" s="85"/>
+      <c r="BA31" s="85"/>
+      <c r="BB31" s="85"/>
+      <c r="BC31" s="81"/>
       <c r="BD31" s="45"/>
       <c r="BE31" s="45"/>
       <c r="BF31" s="45"/>
       <c r="BG31" s="45"/>
-      <c r="BH31" s="92"/>
-      <c r="BI31" s="92"/>
-      <c r="BJ31" s="92"/>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="73"/>
+      <c r="BJ31" s="73"/>
       <c r="BK31" s="55"/>
       <c r="BL31" s="55"/>
       <c r="BM31" s="55"/>
@@ -5962,15 +5980,15 @@
       <c r="AMD31" s="50"/>
     </row>
     <row r="32" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="75"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="85"/>
       <c r="M32" s="45"/>
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
@@ -5979,33 +5997,33 @@
       <c r="S32" s="53"/>
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="75"/>
+      <c r="W32" s="84"/>
+      <c r="X32" s="85"/>
       <c r="AA32" s="45"/>
       <c r="AB32" s="45"/>
       <c r="AC32" s="53"/>
       <c r="AE32" s="45"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
       <c r="AK32" s="45"/>
       <c r="AN32" s="45"/>
-      <c r="AO32" s="75"/>
+      <c r="AO32" s="85"/>
       <c r="AP32" s="45"/>
       <c r="AQ32" s="45"/>
       <c r="AS32" s="45"/>
       <c r="AT32" s="45"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="75"/>
-      <c r="BB32" s="75"/>
-      <c r="BC32" s="69"/>
+      <c r="AY32" s="85"/>
+      <c r="AZ32" s="85"/>
+      <c r="BA32" s="85"/>
+      <c r="BB32" s="85"/>
+      <c r="BC32" s="81"/>
       <c r="BD32" s="45"/>
       <c r="BE32" s="45"/>
       <c r="BF32" s="45"/>
       <c r="BG32" s="45"/>
-      <c r="BH32" s="92"/>
-      <c r="BI32" s="92"/>
-      <c r="BJ32" s="92"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="73"/>
       <c r="BK32" s="55"/>
       <c r="BL32" s="55"/>
       <c r="BM32" s="55"/>
@@ -6062,15 +6080,15 @@
       <c r="AMD32" s="50"/>
     </row>
     <row r="33" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="75"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="85"/>
       <c r="M33" s="45"/>
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
@@ -6079,33 +6097,33 @@
       <c r="S33" s="53"/>
       <c r="T33" s="45"/>
       <c r="U33" s="45"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="75"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="85"/>
       <c r="AA33" s="45"/>
       <c r="AB33" s="45"/>
       <c r="AC33" s="53"/>
       <c r="AE33" s="45"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="75"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="85"/>
       <c r="AK33" s="45"/>
       <c r="AN33" s="45"/>
-      <c r="AO33" s="75"/>
+      <c r="AO33" s="85"/>
       <c r="AP33" s="45"/>
       <c r="AQ33" s="45"/>
       <c r="AS33" s="45"/>
       <c r="AT33" s="45"/>
-      <c r="AY33" s="75"/>
-      <c r="AZ33" s="75"/>
-      <c r="BA33" s="75"/>
-      <c r="BB33" s="75"/>
-      <c r="BC33" s="69"/>
+      <c r="AY33" s="85"/>
+      <c r="AZ33" s="85"/>
+      <c r="BA33" s="85"/>
+      <c r="BB33" s="85"/>
+      <c r="BC33" s="81"/>
       <c r="BD33" s="45"/>
       <c r="BE33" s="45"/>
       <c r="BF33" s="45"/>
       <c r="BG33" s="45"/>
-      <c r="BH33" s="92"/>
-      <c r="BI33" s="92"/>
-      <c r="BJ33" s="92"/>
+      <c r="BH33" s="73"/>
+      <c r="BI33" s="73"/>
+      <c r="BJ33" s="73"/>
       <c r="BK33" s="55"/>
       <c r="BL33" s="55"/>
       <c r="BM33" s="55"/>
@@ -6162,15 +6180,15 @@
       <c r="AMD33" s="50"/>
     </row>
     <row r="34" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="75"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="85"/>
       <c r="M34" s="45"/>
       <c r="O34" s="45"/>
       <c r="P34" s="45"/>
@@ -6178,32 +6196,32 @@
       <c r="S34" s="53"/>
       <c r="T34" s="45"/>
       <c r="U34" s="45"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="75"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="85"/>
       <c r="AA34" s="45"/>
       <c r="AB34" s="45"/>
       <c r="AC34" s="53"/>
       <c r="AE34" s="45"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="75"/>
+      <c r="AF34" s="85"/>
+      <c r="AG34" s="85"/>
       <c r="AK34" s="45"/>
       <c r="AN34" s="45"/>
-      <c r="AO34" s="75"/>
+      <c r="AO34" s="85"/>
       <c r="AP34" s="45"/>
       <c r="AS34" s="45"/>
       <c r="AT34" s="45"/>
-      <c r="AY34" s="75"/>
-      <c r="AZ34" s="75"/>
-      <c r="BA34" s="75"/>
-      <c r="BB34" s="75"/>
-      <c r="BC34" s="69"/>
+      <c r="AY34" s="85"/>
+      <c r="AZ34" s="85"/>
+      <c r="BA34" s="85"/>
+      <c r="BB34" s="85"/>
+      <c r="BC34" s="81"/>
       <c r="BD34" s="45"/>
       <c r="BE34" s="45"/>
       <c r="BF34" s="45"/>
       <c r="BG34" s="45"/>
-      <c r="BH34" s="92"/>
-      <c r="BI34" s="92"/>
-      <c r="BJ34" s="92"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="73"/>
       <c r="BK34" s="55"/>
       <c r="BL34" s="55"/>
       <c r="BM34" s="55"/>
@@ -6260,15 +6278,15 @@
       <c r="AMD34" s="50"/>
     </row>
     <row r="35" spans="1:1018" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="82"/>
-      <c r="I35" s="81"/>
+      <c r="I35" s="75"/>
       <c r="J35" s="35"/>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
@@ -6283,7 +6301,7 @@
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
       <c r="W35" s="83"/>
-      <c r="X35" s="81"/>
+      <c r="X35" s="75"/>
       <c r="Y35" s="35"/>
       <c r="Z35" s="35"/>
       <c r="AA35" s="35"/>
@@ -6291,8 +6309,8 @@
       <c r="AC35" s="36"/>
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
-      <c r="AF35" s="81"/>
-      <c r="AG35" s="81"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
       <c r="AH35" s="35"/>
       <c r="AI35" s="35"/>
       <c r="AJ35" s="35"/>
@@ -6300,7 +6318,7 @@
       <c r="AL35" s="35"/>
       <c r="AM35" s="35"/>
       <c r="AN35" s="35"/>
-      <c r="AO35" s="81"/>
+      <c r="AO35" s="75"/>
       <c r="AP35" s="35"/>
       <c r="AQ35" s="35"/>
       <c r="AR35" s="35"/>
@@ -6308,18 +6326,18 @@
       <c r="AT35" s="35"/>
       <c r="AV35" s="35"/>
       <c r="AW35" s="35"/>
-      <c r="AY35" s="81"/>
-      <c r="AZ35" s="81"/>
-      <c r="BA35" s="81"/>
-      <c r="BB35" s="81"/>
-      <c r="BC35" s="72"/>
+      <c r="AY35" s="75"/>
+      <c r="AZ35" s="75"/>
+      <c r="BA35" s="75"/>
+      <c r="BB35" s="75"/>
+      <c r="BC35" s="76"/>
       <c r="BD35" s="35"/>
       <c r="BE35" s="35"/>
       <c r="BF35" s="35"/>
       <c r="BG35" s="35"/>
-      <c r="BH35" s="68"/>
-      <c r="BI35" s="73"/>
-      <c r="BJ35" s="89"/>
+      <c r="BH35" s="69"/>
+      <c r="BI35" s="71"/>
+      <c r="BJ35" s="70"/>
       <c r="BK35" s="39"/>
       <c r="BL35" s="39"/>
       <c r="BM35" s="39"/>
@@ -6376,15 +6394,15 @@
       <c r="AMD35"/>
     </row>
     <row r="36" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="81"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="82"/>
-      <c r="I36" s="81"/>
+      <c r="I36" s="75"/>
       <c r="M36" s="35"/>
       <c r="N36" s="41"/>
       <c r="O36" s="35"/>
@@ -6396,36 +6414,36 @@
       <c r="U36" s="35"/>
       <c r="V36" s="43"/>
       <c r="W36" s="83"/>
-      <c r="X36" s="81"/>
+      <c r="X36" s="75"/>
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
       <c r="AA36" s="35"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="42"/>
       <c r="AE36" s="35"/>
-      <c r="AF36" s="81"/>
-      <c r="AG36" s="81"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75"/>
       <c r="AH36" s="43"/>
       <c r="AK36" s="35"/>
       <c r="AN36" s="35"/>
-      <c r="AO36" s="81"/>
+      <c r="AO36" s="75"/>
       <c r="AP36" s="35"/>
       <c r="AQ36" s="35"/>
       <c r="AS36" s="35"/>
       <c r="AT36" s="35"/>
       <c r="AV36" s="43"/>
-      <c r="AY36" s="81"/>
-      <c r="AZ36" s="81"/>
-      <c r="BA36" s="81"/>
-      <c r="BB36" s="81"/>
-      <c r="BC36" s="72"/>
+      <c r="AY36" s="75"/>
+      <c r="AZ36" s="75"/>
+      <c r="BA36" s="75"/>
+      <c r="BB36" s="75"/>
+      <c r="BC36" s="76"/>
       <c r="BD36" s="35"/>
       <c r="BE36" s="35"/>
       <c r="BF36" s="35"/>
       <c r="BG36" s="35"/>
-      <c r="BH36" s="89"/>
-      <c r="BI36" s="89"/>
-      <c r="BJ36" s="89"/>
+      <c r="BH36" s="70"/>
+      <c r="BI36" s="70"/>
+      <c r="BJ36" s="70"/>
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
       <c r="BM36" s="44"/>
@@ -6482,15 +6500,15 @@
       <c r="AMD36"/>
     </row>
     <row r="37" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="81"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="82"/>
-      <c r="I37" s="81"/>
+      <c r="I37" s="75"/>
       <c r="M37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
@@ -6500,34 +6518,34 @@
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
       <c r="W37" s="83"/>
-      <c r="X37" s="81"/>
+      <c r="X37" s="75"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
       <c r="AA37" s="35"/>
       <c r="AB37" s="35"/>
       <c r="AC37" s="42"/>
       <c r="AE37" s="35"/>
-      <c r="AF37" s="81"/>
-      <c r="AG37" s="81"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="75"/>
       <c r="AK37" s="35"/>
       <c r="AN37" s="35"/>
-      <c r="AO37" s="81"/>
+      <c r="AO37" s="75"/>
       <c r="AP37" s="35"/>
       <c r="AQ37" s="35"/>
       <c r="AS37" s="35"/>
       <c r="AT37" s="35"/>
-      <c r="AY37" s="81"/>
-      <c r="AZ37" s="81"/>
-      <c r="BA37" s="81"/>
-      <c r="BB37" s="81"/>
-      <c r="BC37" s="72"/>
+      <c r="AY37" s="75"/>
+      <c r="AZ37" s="75"/>
+      <c r="BA37" s="75"/>
+      <c r="BB37" s="75"/>
+      <c r="BC37" s="76"/>
       <c r="BD37" s="35"/>
       <c r="BE37" s="35"/>
       <c r="BF37" s="35"/>
       <c r="BG37" s="35"/>
-      <c r="BH37" s="89"/>
-      <c r="BI37" s="89"/>
-      <c r="BJ37" s="89"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="70"/>
+      <c r="BJ37" s="70"/>
       <c r="BK37" s="44"/>
       <c r="BL37" s="44"/>
       <c r="BM37" s="44"/>
@@ -6584,15 +6602,15 @@
       <c r="AMD37"/>
     </row>
     <row r="38" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="81"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="81"/>
+      <c r="I38" s="75"/>
       <c r="M38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -6602,32 +6620,32 @@
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
       <c r="W38" s="83"/>
-      <c r="X38" s="81"/>
+      <c r="X38" s="75"/>
       <c r="AA38" s="35"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="42"/>
       <c r="AE38" s="35"/>
-      <c r="AF38" s="81"/>
-      <c r="AG38" s="81"/>
+      <c r="AF38" s="75"/>
+      <c r="AG38" s="75"/>
       <c r="AK38" s="35"/>
       <c r="AN38" s="35"/>
-      <c r="AO38" s="81"/>
+      <c r="AO38" s="75"/>
       <c r="AP38" s="35"/>
       <c r="AQ38" s="35"/>
       <c r="AS38" s="35"/>
       <c r="AT38" s="35"/>
-      <c r="AY38" s="81"/>
-      <c r="AZ38" s="81"/>
-      <c r="BA38" s="81"/>
-      <c r="BB38" s="81"/>
-      <c r="BC38" s="72"/>
+      <c r="AY38" s="75"/>
+      <c r="AZ38" s="75"/>
+      <c r="BA38" s="75"/>
+      <c r="BB38" s="75"/>
+      <c r="BC38" s="76"/>
       <c r="BD38" s="35"/>
       <c r="BE38" s="35"/>
       <c r="BF38" s="35"/>
       <c r="BG38" s="35"/>
-      <c r="BH38" s="89"/>
-      <c r="BI38" s="89"/>
-      <c r="BJ38" s="89"/>
+      <c r="BH38" s="70"/>
+      <c r="BI38" s="70"/>
+      <c r="BJ38" s="70"/>
       <c r="BK38" s="44"/>
       <c r="BL38" s="44"/>
       <c r="BM38" s="44"/>
@@ -6684,15 +6702,15 @@
       <c r="AMD38"/>
     </row>
     <row r="39" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="81"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="82"/>
-      <c r="I39" s="81"/>
+      <c r="I39" s="75"/>
       <c r="M39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -6702,32 +6720,32 @@
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
       <c r="W39" s="83"/>
-      <c r="X39" s="81"/>
+      <c r="X39" s="75"/>
       <c r="AA39" s="35"/>
       <c r="AB39" s="35"/>
       <c r="AC39" s="42"/>
       <c r="AE39" s="35"/>
-      <c r="AF39" s="81"/>
-      <c r="AG39" s="81"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75"/>
       <c r="AK39" s="35"/>
       <c r="AN39" s="35"/>
-      <c r="AO39" s="81"/>
+      <c r="AO39" s="75"/>
       <c r="AP39" s="35"/>
       <c r="AQ39" s="35"/>
       <c r="AS39" s="35"/>
       <c r="AT39" s="35"/>
-      <c r="AY39" s="81"/>
-      <c r="AZ39" s="81"/>
-      <c r="BA39" s="81"/>
-      <c r="BB39" s="81"/>
-      <c r="BC39" s="72"/>
+      <c r="AY39" s="75"/>
+      <c r="AZ39" s="75"/>
+      <c r="BA39" s="75"/>
+      <c r="BB39" s="75"/>
+      <c r="BC39" s="76"/>
       <c r="BD39" s="35"/>
       <c r="BE39" s="35"/>
       <c r="BF39" s="35"/>
       <c r="BG39" s="35"/>
-      <c r="BH39" s="89"/>
-      <c r="BI39" s="89"/>
-      <c r="BJ39" s="89"/>
+      <c r="BH39" s="70"/>
+      <c r="BI39" s="70"/>
+      <c r="BJ39" s="70"/>
       <c r="BK39" s="44"/>
       <c r="BL39" s="44"/>
       <c r="BM39" s="44"/>
@@ -6784,15 +6802,15 @@
       <c r="AMD39"/>
     </row>
     <row r="40" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="81"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="75"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="81"/>
+      <c r="I40" s="75"/>
       <c r="M40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -6802,32 +6820,32 @@
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
       <c r="W40" s="83"/>
-      <c r="X40" s="81"/>
+      <c r="X40" s="75"/>
       <c r="AA40" s="35"/>
       <c r="AB40" s="35"/>
       <c r="AC40" s="42"/>
       <c r="AE40" s="35"/>
-      <c r="AF40" s="81"/>
-      <c r="AG40" s="81"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="75"/>
       <c r="AK40" s="35"/>
       <c r="AN40" s="35"/>
-      <c r="AO40" s="81"/>
+      <c r="AO40" s="75"/>
       <c r="AP40" s="35"/>
       <c r="AQ40" s="35"/>
       <c r="AS40" s="35"/>
       <c r="AT40" s="35"/>
-      <c r="AY40" s="81"/>
-      <c r="AZ40" s="81"/>
-      <c r="BA40" s="81"/>
-      <c r="BB40" s="81"/>
-      <c r="BC40" s="72"/>
+      <c r="AY40" s="75"/>
+      <c r="AZ40" s="75"/>
+      <c r="BA40" s="75"/>
+      <c r="BB40" s="75"/>
+      <c r="BC40" s="76"/>
       <c r="BD40" s="35"/>
       <c r="BE40" s="35"/>
       <c r="BF40" s="35"/>
       <c r="BG40" s="35"/>
-      <c r="BH40" s="89"/>
-      <c r="BI40" s="89"/>
-      <c r="BJ40" s="89"/>
+      <c r="BH40" s="70"/>
+      <c r="BI40" s="70"/>
+      <c r="BJ40" s="70"/>
       <c r="BK40" s="44"/>
       <c r="BL40" s="44"/>
       <c r="BM40" s="44"/>
@@ -6884,15 +6902,15 @@
       <c r="AMD40"/>
     </row>
     <row r="41" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="81"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="75"/>
       <c r="H41" s="82"/>
-      <c r="I41" s="81"/>
+      <c r="I41" s="75"/>
       <c r="M41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
@@ -6902,32 +6920,32 @@
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
       <c r="W41" s="83"/>
-      <c r="X41" s="81"/>
+      <c r="X41" s="75"/>
       <c r="AA41" s="35"/>
       <c r="AB41" s="35"/>
       <c r="AC41" s="42"/>
       <c r="AE41" s="35"/>
-      <c r="AF41" s="81"/>
-      <c r="AG41" s="81"/>
+      <c r="AF41" s="75"/>
+      <c r="AG41" s="75"/>
       <c r="AK41" s="35"/>
       <c r="AN41" s="35"/>
-      <c r="AO41" s="81"/>
+      <c r="AO41" s="75"/>
       <c r="AP41" s="35"/>
       <c r="AQ41" s="35"/>
       <c r="AS41" s="35"/>
       <c r="AT41" s="35"/>
-      <c r="AY41" s="81"/>
-      <c r="AZ41" s="81"/>
-      <c r="BA41" s="81"/>
-      <c r="BB41" s="81"/>
-      <c r="BC41" s="72"/>
+      <c r="AY41" s="75"/>
+      <c r="AZ41" s="75"/>
+      <c r="BA41" s="75"/>
+      <c r="BB41" s="75"/>
+      <c r="BC41" s="76"/>
       <c r="BD41" s="35"/>
       <c r="BE41" s="35"/>
       <c r="BF41" s="35"/>
       <c r="BG41" s="35"/>
-      <c r="BH41" s="89"/>
-      <c r="BI41" s="89"/>
-      <c r="BJ41" s="89"/>
+      <c r="BH41" s="70"/>
+      <c r="BI41" s="70"/>
+      <c r="BJ41" s="70"/>
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
       <c r="BM41" s="44"/>
@@ -6984,15 +7002,15 @@
       <c r="AMD41"/>
     </row>
     <row r="42" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="81"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="82"/>
-      <c r="I42" s="81"/>
+      <c r="I42" s="75"/>
       <c r="M42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -7002,32 +7020,32 @@
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
       <c r="W42" s="83"/>
-      <c r="X42" s="81"/>
+      <c r="X42" s="75"/>
       <c r="AA42" s="35"/>
       <c r="AB42" s="35"/>
       <c r="AC42" s="42"/>
       <c r="AE42" s="35"/>
-      <c r="AF42" s="81"/>
-      <c r="AG42" s="81"/>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="75"/>
       <c r="AK42" s="35"/>
       <c r="AN42" s="35"/>
-      <c r="AO42" s="81"/>
+      <c r="AO42" s="75"/>
       <c r="AP42" s="35"/>
       <c r="AQ42" s="35"/>
       <c r="AS42" s="35"/>
       <c r="AT42" s="35"/>
-      <c r="AY42" s="81"/>
-      <c r="AZ42" s="81"/>
-      <c r="BA42" s="81"/>
-      <c r="BB42" s="81"/>
-      <c r="BC42" s="72"/>
+      <c r="AY42" s="75"/>
+      <c r="AZ42" s="75"/>
+      <c r="BA42" s="75"/>
+      <c r="BB42" s="75"/>
+      <c r="BC42" s="76"/>
       <c r="BD42" s="35"/>
       <c r="BE42" s="35"/>
       <c r="BF42" s="35"/>
       <c r="BG42" s="35"/>
-      <c r="BH42" s="89"/>
-      <c r="BI42" s="89"/>
-      <c r="BJ42" s="89"/>
+      <c r="BH42" s="70"/>
+      <c r="BI42" s="70"/>
+      <c r="BJ42" s="70"/>
       <c r="BK42" s="44"/>
       <c r="BL42" s="44"/>
       <c r="BM42" s="44"/>
@@ -7084,15 +7102,15 @@
       <c r="AMD42"/>
     </row>
     <row r="43" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="81"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="75"/>
       <c r="H43" s="82"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="75"/>
       <c r="M43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
@@ -7102,32 +7120,32 @@
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="W43" s="83"/>
-      <c r="X43" s="81"/>
+      <c r="X43" s="75"/>
       <c r="AA43" s="35"/>
       <c r="AB43" s="35"/>
       <c r="AC43" s="42"/>
       <c r="AE43" s="35"/>
-      <c r="AF43" s="81"/>
-      <c r="AG43" s="81"/>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="75"/>
       <c r="AK43" s="35"/>
       <c r="AN43" s="35"/>
-      <c r="AO43" s="81"/>
+      <c r="AO43" s="75"/>
       <c r="AP43" s="35"/>
       <c r="AQ43" s="35"/>
       <c r="AS43" s="35"/>
       <c r="AT43" s="35"/>
-      <c r="AY43" s="81"/>
-      <c r="AZ43" s="81"/>
-      <c r="BA43" s="81"/>
-      <c r="BB43" s="81"/>
-      <c r="BC43" s="72"/>
+      <c r="AY43" s="75"/>
+      <c r="AZ43" s="75"/>
+      <c r="BA43" s="75"/>
+      <c r="BB43" s="75"/>
+      <c r="BC43" s="76"/>
       <c r="BD43" s="35"/>
       <c r="BE43" s="35"/>
       <c r="BF43" s="35"/>
       <c r="BG43" s="35"/>
-      <c r="BH43" s="89"/>
-      <c r="BI43" s="89"/>
-      <c r="BJ43" s="89"/>
+      <c r="BH43" s="70"/>
+      <c r="BI43" s="70"/>
+      <c r="BJ43" s="70"/>
       <c r="BK43" s="44"/>
       <c r="BL43" s="44"/>
       <c r="BM43" s="44"/>
@@ -7184,15 +7202,15 @@
       <c r="AMD43"/>
     </row>
     <row r="44" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="81"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="81"/>
+      <c r="I44" s="75"/>
       <c r="M44" s="35"/>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
@@ -7202,32 +7220,32 @@
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
       <c r="W44" s="83"/>
-      <c r="X44" s="81"/>
+      <c r="X44" s="75"/>
       <c r="AA44" s="35"/>
       <c r="AB44" s="35"/>
       <c r="AC44" s="42"/>
       <c r="AE44" s="35"/>
-      <c r="AF44" s="81"/>
-      <c r="AG44" s="81"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="75"/>
       <c r="AK44" s="35"/>
       <c r="AN44" s="35"/>
-      <c r="AO44" s="81"/>
+      <c r="AO44" s="75"/>
       <c r="AP44" s="35"/>
       <c r="AQ44" s="35"/>
       <c r="AS44" s="35"/>
       <c r="AT44" s="35"/>
-      <c r="AY44" s="81"/>
-      <c r="AZ44" s="81"/>
-      <c r="BA44" s="81"/>
-      <c r="BB44" s="81"/>
-      <c r="BC44" s="72"/>
+      <c r="AY44" s="75"/>
+      <c r="AZ44" s="75"/>
+      <c r="BA44" s="75"/>
+      <c r="BB44" s="75"/>
+      <c r="BC44" s="76"/>
       <c r="BD44" s="35"/>
       <c r="BE44" s="35"/>
       <c r="BF44" s="35"/>
       <c r="BG44" s="35"/>
-      <c r="BH44" s="89"/>
-      <c r="BI44" s="89"/>
-      <c r="BJ44" s="89"/>
+      <c r="BH44" s="70"/>
+      <c r="BI44" s="70"/>
+      <c r="BJ44" s="70"/>
       <c r="BK44" s="44"/>
       <c r="BL44" s="44"/>
       <c r="BM44" s="44"/>
@@ -7284,15 +7302,15 @@
       <c r="AMD44"/>
     </row>
     <row r="45" spans="1:1018" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="75"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="85"/>
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
       <c r="L45" s="45"/>
@@ -7306,8 +7324,8 @@
       <c r="T45" s="45"/>
       <c r="U45" s="45"/>
       <c r="V45" s="45"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="75"/>
+      <c r="W45" s="84"/>
+      <c r="X45" s="85"/>
       <c r="Y45" s="45"/>
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
@@ -7315,8 +7333,8 @@
       <c r="AC45" s="46"/>
       <c r="AD45" s="45"/>
       <c r="AE45" s="45"/>
-      <c r="AF45" s="75"/>
-      <c r="AG45" s="75"/>
+      <c r="AF45" s="85"/>
+      <c r="AG45" s="85"/>
       <c r="AH45" s="45"/>
       <c r="AI45" s="45"/>
       <c r="AJ45" s="45"/>
@@ -7324,7 +7342,7 @@
       <c r="AL45" s="45"/>
       <c r="AM45" s="45"/>
       <c r="AN45" s="45"/>
-      <c r="AO45" s="75"/>
+      <c r="AO45" s="85"/>
       <c r="AP45" s="45"/>
       <c r="AQ45" s="45"/>
       <c r="AR45" s="45"/>
@@ -7332,18 +7350,18 @@
       <c r="AT45" s="45"/>
       <c r="AV45" s="45"/>
       <c r="AW45" s="45"/>
-      <c r="AY45" s="75"/>
-      <c r="AZ45" s="75"/>
-      <c r="BA45" s="75"/>
-      <c r="BB45" s="75"/>
-      <c r="BC45" s="69"/>
+      <c r="AY45" s="85"/>
+      <c r="AZ45" s="85"/>
+      <c r="BA45" s="85"/>
+      <c r="BB45" s="85"/>
+      <c r="BC45" s="81"/>
       <c r="BD45" s="45"/>
       <c r="BE45" s="45"/>
       <c r="BF45" s="45"/>
       <c r="BG45" s="45"/>
-      <c r="BH45" s="90"/>
-      <c r="BI45" s="91"/>
-      <c r="BJ45" s="92"/>
+      <c r="BH45" s="72"/>
+      <c r="BI45" s="74"/>
+      <c r="BJ45" s="73"/>
       <c r="BK45" s="49"/>
       <c r="BL45" s="49"/>
       <c r="BM45" s="49"/>
@@ -7400,15 +7418,15 @@
       <c r="AMD45" s="50"/>
     </row>
     <row r="46" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="75"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="85"/>
       <c r="M46" s="45"/>
       <c r="N46" s="52"/>
       <c r="O46" s="45"/>
@@ -7419,37 +7437,37 @@
       <c r="T46" s="45"/>
       <c r="U46" s="45"/>
       <c r="V46" s="54"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="75"/>
+      <c r="W46" s="84"/>
+      <c r="X46" s="85"/>
       <c r="Y46" s="54"/>
       <c r="Z46" s="54"/>
       <c r="AA46" s="45"/>
       <c r="AB46" s="45"/>
       <c r="AC46" s="53"/>
       <c r="AE46" s="45"/>
-      <c r="AF46" s="75"/>
-      <c r="AG46" s="75"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="85"/>
       <c r="AH46" s="54"/>
       <c r="AK46" s="45"/>
       <c r="AN46" s="45"/>
-      <c r="AO46" s="75"/>
+      <c r="AO46" s="85"/>
       <c r="AP46" s="45"/>
       <c r="AQ46" s="45"/>
       <c r="AS46" s="45"/>
       <c r="AT46" s="45"/>
       <c r="AV46" s="54"/>
-      <c r="AY46" s="75"/>
-      <c r="AZ46" s="75"/>
-      <c r="BA46" s="75"/>
-      <c r="BB46" s="75"/>
-      <c r="BC46" s="69"/>
+      <c r="AY46" s="85"/>
+      <c r="AZ46" s="85"/>
+      <c r="BA46" s="85"/>
+      <c r="BB46" s="85"/>
+      <c r="BC46" s="81"/>
       <c r="BD46" s="45"/>
       <c r="BE46" s="45"/>
       <c r="BF46" s="45"/>
       <c r="BG46" s="45"/>
-      <c r="BH46" s="92"/>
-      <c r="BI46" s="92"/>
-      <c r="BJ46" s="92"/>
+      <c r="BH46" s="73"/>
+      <c r="BI46" s="73"/>
+      <c r="BJ46" s="73"/>
       <c r="BK46" s="55"/>
       <c r="BL46" s="55"/>
       <c r="BM46" s="55"/>
@@ -7506,15 +7524,15 @@
       <c r="AMD46" s="50"/>
     </row>
     <row r="47" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="75"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="85"/>
       <c r="M47" s="45"/>
       <c r="O47" s="45"/>
       <c r="P47" s="45"/>
@@ -7523,35 +7541,35 @@
       <c r="S47" s="53"/>
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="75"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="85"/>
       <c r="Y47" s="54"/>
       <c r="Z47" s="54"/>
       <c r="AA47" s="45"/>
       <c r="AB47" s="45"/>
       <c r="AC47" s="53"/>
       <c r="AE47" s="45"/>
-      <c r="AF47" s="75"/>
-      <c r="AG47" s="75"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="85"/>
       <c r="AK47" s="45"/>
       <c r="AN47" s="45"/>
-      <c r="AO47" s="75"/>
+      <c r="AO47" s="85"/>
       <c r="AP47" s="45"/>
       <c r="AQ47" s="45"/>
       <c r="AS47" s="45"/>
       <c r="AT47" s="45"/>
-      <c r="AY47" s="75"/>
-      <c r="AZ47" s="75"/>
-      <c r="BA47" s="75"/>
-      <c r="BB47" s="75"/>
-      <c r="BC47" s="69"/>
+      <c r="AY47" s="85"/>
+      <c r="AZ47" s="85"/>
+      <c r="BA47" s="85"/>
+      <c r="BB47" s="85"/>
+      <c r="BC47" s="81"/>
       <c r="BD47" s="45"/>
       <c r="BE47" s="45"/>
       <c r="BF47" s="45"/>
       <c r="BG47" s="45"/>
-      <c r="BH47" s="92"/>
-      <c r="BI47" s="92"/>
-      <c r="BJ47" s="92"/>
+      <c r="BH47" s="73"/>
+      <c r="BI47" s="73"/>
+      <c r="BJ47" s="73"/>
       <c r="BK47" s="55"/>
       <c r="BL47" s="55"/>
       <c r="BM47" s="55"/>
@@ -7608,15 +7626,15 @@
       <c r="AMD47" s="50"/>
     </row>
     <row r="48" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="75"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="85"/>
       <c r="M48" s="45"/>
       <c r="O48" s="45"/>
       <c r="P48" s="45"/>
@@ -7625,33 +7643,33 @@
       <c r="S48" s="53"/>
       <c r="T48" s="45"/>
       <c r="U48" s="45"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="75"/>
+      <c r="W48" s="84"/>
+      <c r="X48" s="85"/>
       <c r="AA48" s="45"/>
       <c r="AB48" s="45"/>
       <c r="AC48" s="53"/>
       <c r="AE48" s="45"/>
-      <c r="AF48" s="75"/>
-      <c r="AG48" s="75"/>
+      <c r="AF48" s="85"/>
+      <c r="AG48" s="85"/>
       <c r="AK48" s="45"/>
       <c r="AN48" s="45"/>
-      <c r="AO48" s="75"/>
+      <c r="AO48" s="85"/>
       <c r="AP48" s="45"/>
       <c r="AQ48" s="45"/>
       <c r="AS48" s="45"/>
       <c r="AT48" s="45"/>
-      <c r="AY48" s="75"/>
-      <c r="AZ48" s="75"/>
-      <c r="BA48" s="75"/>
-      <c r="BB48" s="75"/>
-      <c r="BC48" s="69"/>
+      <c r="AY48" s="85"/>
+      <c r="AZ48" s="85"/>
+      <c r="BA48" s="85"/>
+      <c r="BB48" s="85"/>
+      <c r="BC48" s="81"/>
       <c r="BD48" s="45"/>
       <c r="BE48" s="45"/>
       <c r="BF48" s="45"/>
       <c r="BG48" s="45"/>
-      <c r="BH48" s="92"/>
-      <c r="BI48" s="92"/>
-      <c r="BJ48" s="92"/>
+      <c r="BH48" s="73"/>
+      <c r="BI48" s="73"/>
+      <c r="BJ48" s="73"/>
       <c r="BK48" s="55"/>
       <c r="BL48" s="55"/>
       <c r="BM48" s="55"/>
@@ -7708,15 +7726,15 @@
       <c r="AMD48" s="50"/>
     </row>
     <row r="49" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="75"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="85"/>
       <c r="M49" s="45"/>
       <c r="O49" s="45"/>
       <c r="P49" s="45"/>
@@ -7725,33 +7743,33 @@
       <c r="S49" s="53"/>
       <c r="T49" s="45"/>
       <c r="U49" s="45"/>
-      <c r="W49" s="74"/>
-      <c r="X49" s="75"/>
+      <c r="W49" s="84"/>
+      <c r="X49" s="85"/>
       <c r="AA49" s="45"/>
       <c r="AB49" s="45"/>
       <c r="AC49" s="53"/>
       <c r="AE49" s="45"/>
-      <c r="AF49" s="75"/>
-      <c r="AG49" s="75"/>
+      <c r="AF49" s="85"/>
+      <c r="AG49" s="85"/>
       <c r="AK49" s="45"/>
       <c r="AN49" s="45"/>
-      <c r="AO49" s="75"/>
+      <c r="AO49" s="85"/>
       <c r="AP49" s="45"/>
       <c r="AQ49" s="45"/>
       <c r="AS49" s="45"/>
       <c r="AT49" s="45"/>
-      <c r="AY49" s="75"/>
-      <c r="AZ49" s="75"/>
-      <c r="BA49" s="75"/>
-      <c r="BB49" s="75"/>
-      <c r="BC49" s="69"/>
+      <c r="AY49" s="85"/>
+      <c r="AZ49" s="85"/>
+      <c r="BA49" s="85"/>
+      <c r="BB49" s="85"/>
+      <c r="BC49" s="81"/>
       <c r="BD49" s="45"/>
       <c r="BE49" s="45"/>
       <c r="BF49" s="45"/>
       <c r="BG49" s="45"/>
-      <c r="BH49" s="92"/>
-      <c r="BI49" s="92"/>
-      <c r="BJ49" s="92"/>
+      <c r="BH49" s="73"/>
+      <c r="BI49" s="73"/>
+      <c r="BJ49" s="73"/>
       <c r="BK49" s="55"/>
       <c r="BL49" s="55"/>
       <c r="BM49" s="55"/>
@@ -7808,15 +7826,15 @@
       <c r="AMD49" s="50"/>
     </row>
     <row r="50" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="75"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="85"/>
       <c r="M50" s="45"/>
       <c r="O50" s="45"/>
       <c r="P50" s="45"/>
@@ -7825,33 +7843,33 @@
       <c r="S50" s="53"/>
       <c r="T50" s="45"/>
       <c r="U50" s="45"/>
-      <c r="W50" s="74"/>
-      <c r="X50" s="75"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="85"/>
       <c r="AA50" s="45"/>
       <c r="AB50" s="45"/>
       <c r="AC50" s="53"/>
       <c r="AE50" s="45"/>
-      <c r="AF50" s="75"/>
-      <c r="AG50" s="75"/>
+      <c r="AF50" s="85"/>
+      <c r="AG50" s="85"/>
       <c r="AK50" s="45"/>
       <c r="AN50" s="45"/>
-      <c r="AO50" s="75"/>
+      <c r="AO50" s="85"/>
       <c r="AP50" s="45"/>
       <c r="AQ50" s="45"/>
       <c r="AS50" s="45"/>
       <c r="AT50" s="45"/>
-      <c r="AY50" s="75"/>
-      <c r="AZ50" s="75"/>
-      <c r="BA50" s="75"/>
-      <c r="BB50" s="75"/>
-      <c r="BC50" s="69"/>
+      <c r="AY50" s="85"/>
+      <c r="AZ50" s="85"/>
+      <c r="BA50" s="85"/>
+      <c r="BB50" s="85"/>
+      <c r="BC50" s="81"/>
       <c r="BD50" s="45"/>
       <c r="BE50" s="45"/>
       <c r="BF50" s="45"/>
       <c r="BG50" s="45"/>
-      <c r="BH50" s="92"/>
-      <c r="BI50" s="92"/>
-      <c r="BJ50" s="92"/>
+      <c r="BH50" s="73"/>
+      <c r="BI50" s="73"/>
+      <c r="BJ50" s="73"/>
       <c r="BK50" s="55"/>
       <c r="BL50" s="55"/>
       <c r="BM50" s="55"/>
@@ -7908,15 +7926,15 @@
       <c r="AMD50" s="50"/>
     </row>
     <row r="51" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="75"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="85"/>
       <c r="M51" s="45"/>
       <c r="O51" s="45"/>
       <c r="P51" s="45"/>
@@ -7925,33 +7943,33 @@
       <c r="S51" s="53"/>
       <c r="T51" s="45"/>
       <c r="U51" s="45"/>
-      <c r="W51" s="74"/>
-      <c r="X51" s="75"/>
+      <c r="W51" s="84"/>
+      <c r="X51" s="85"/>
       <c r="AA51" s="45"/>
       <c r="AB51" s="45"/>
       <c r="AC51" s="53"/>
       <c r="AE51" s="45"/>
-      <c r="AF51" s="75"/>
-      <c r="AG51" s="75"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="85"/>
       <c r="AK51" s="45"/>
       <c r="AN51" s="45"/>
-      <c r="AO51" s="75"/>
+      <c r="AO51" s="85"/>
       <c r="AP51" s="45"/>
       <c r="AQ51" s="45"/>
       <c r="AS51" s="45"/>
       <c r="AT51" s="45"/>
-      <c r="AY51" s="75"/>
-      <c r="AZ51" s="75"/>
-      <c r="BA51" s="75"/>
-      <c r="BB51" s="75"/>
-      <c r="BC51" s="69"/>
+      <c r="AY51" s="85"/>
+      <c r="AZ51" s="85"/>
+      <c r="BA51" s="85"/>
+      <c r="BB51" s="85"/>
+      <c r="BC51" s="81"/>
       <c r="BD51" s="45"/>
       <c r="BE51" s="45"/>
       <c r="BF51" s="45"/>
       <c r="BG51" s="45"/>
-      <c r="BH51" s="92"/>
-      <c r="BI51" s="92"/>
-      <c r="BJ51" s="92"/>
+      <c r="BH51" s="73"/>
+      <c r="BI51" s="73"/>
+      <c r="BJ51" s="73"/>
       <c r="BK51" s="55"/>
       <c r="BL51" s="55"/>
       <c r="BM51" s="55"/>
@@ -8008,15 +8026,15 @@
       <c r="AMD51" s="50"/>
     </row>
     <row r="52" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="75"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="85"/>
       <c r="M52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="45"/>
@@ -8025,33 +8043,33 @@
       <c r="S52" s="53"/>
       <c r="T52" s="45"/>
       <c r="U52" s="45"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="75"/>
+      <c r="W52" s="84"/>
+      <c r="X52" s="85"/>
       <c r="AA52" s="45"/>
       <c r="AB52" s="45"/>
       <c r="AC52" s="53"/>
       <c r="AE52" s="45"/>
-      <c r="AF52" s="75"/>
-      <c r="AG52" s="75"/>
+      <c r="AF52" s="85"/>
+      <c r="AG52" s="85"/>
       <c r="AK52" s="45"/>
       <c r="AN52" s="45"/>
-      <c r="AO52" s="75"/>
+      <c r="AO52" s="85"/>
       <c r="AP52" s="45"/>
       <c r="AQ52" s="45"/>
       <c r="AS52" s="45"/>
       <c r="AT52" s="45"/>
-      <c r="AY52" s="75"/>
-      <c r="AZ52" s="75"/>
-      <c r="BA52" s="75"/>
-      <c r="BB52" s="75"/>
-      <c r="BC52" s="69"/>
+      <c r="AY52" s="85"/>
+      <c r="AZ52" s="85"/>
+      <c r="BA52" s="85"/>
+      <c r="BB52" s="85"/>
+      <c r="BC52" s="81"/>
       <c r="BD52" s="45"/>
       <c r="BE52" s="45"/>
       <c r="BF52" s="45"/>
       <c r="BG52" s="45"/>
-      <c r="BH52" s="92"/>
-      <c r="BI52" s="92"/>
-      <c r="BJ52" s="92"/>
+      <c r="BH52" s="73"/>
+      <c r="BI52" s="73"/>
+      <c r="BJ52" s="73"/>
       <c r="BK52" s="55"/>
       <c r="BL52" s="55"/>
       <c r="BM52" s="55"/>
@@ -8108,15 +8126,15 @@
       <c r="AMD52" s="50"/>
     </row>
     <row r="53" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="75"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="85"/>
       <c r="M53" s="45"/>
       <c r="O53" s="45"/>
       <c r="P53" s="45"/>
@@ -8125,33 +8143,33 @@
       <c r="S53" s="53"/>
       <c r="T53" s="45"/>
       <c r="U53" s="45"/>
-      <c r="W53" s="74"/>
-      <c r="X53" s="75"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="85"/>
       <c r="AA53" s="45"/>
       <c r="AB53" s="45"/>
       <c r="AC53" s="53"/>
       <c r="AE53" s="45"/>
-      <c r="AF53" s="75"/>
-      <c r="AG53" s="75"/>
+      <c r="AF53" s="85"/>
+      <c r="AG53" s="85"/>
       <c r="AK53" s="45"/>
       <c r="AN53" s="45"/>
-      <c r="AO53" s="75"/>
+      <c r="AO53" s="85"/>
       <c r="AP53" s="45"/>
       <c r="AQ53" s="45"/>
       <c r="AS53" s="45"/>
       <c r="AT53" s="45"/>
-      <c r="AY53" s="75"/>
-      <c r="AZ53" s="75"/>
-      <c r="BA53" s="75"/>
-      <c r="BB53" s="75"/>
-      <c r="BC53" s="69"/>
+      <c r="AY53" s="85"/>
+      <c r="AZ53" s="85"/>
+      <c r="BA53" s="85"/>
+      <c r="BB53" s="85"/>
+      <c r="BC53" s="81"/>
       <c r="BD53" s="45"/>
       <c r="BE53" s="45"/>
       <c r="BF53" s="45"/>
       <c r="BG53" s="45"/>
-      <c r="BH53" s="92"/>
-      <c r="BI53" s="92"/>
-      <c r="BJ53" s="92"/>
+      <c r="BH53" s="73"/>
+      <c r="BI53" s="73"/>
+      <c r="BJ53" s="73"/>
       <c r="BK53" s="55"/>
       <c r="BL53" s="55"/>
       <c r="BM53" s="55"/>
@@ -8208,15 +8226,15 @@
       <c r="AMD53" s="50"/>
     </row>
     <row r="54" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="75"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="85"/>
       <c r="M54" s="45"/>
       <c r="O54" s="45"/>
       <c r="P54" s="45"/>
@@ -8224,32 +8242,32 @@
       <c r="S54" s="53"/>
       <c r="T54" s="45"/>
       <c r="U54" s="45"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="75"/>
+      <c r="W54" s="84"/>
+      <c r="X54" s="85"/>
       <c r="AA54" s="45"/>
       <c r="AB54" s="45"/>
       <c r="AC54" s="53"/>
       <c r="AE54" s="45"/>
-      <c r="AF54" s="75"/>
-      <c r="AG54" s="75"/>
+      <c r="AF54" s="85"/>
+      <c r="AG54" s="85"/>
       <c r="AK54" s="45"/>
       <c r="AN54" s="45"/>
-      <c r="AO54" s="75"/>
+      <c r="AO54" s="85"/>
       <c r="AP54" s="45"/>
       <c r="AS54" s="45"/>
       <c r="AT54" s="45"/>
-      <c r="AY54" s="75"/>
-      <c r="AZ54" s="75"/>
-      <c r="BA54" s="75"/>
-      <c r="BB54" s="75"/>
-      <c r="BC54" s="69"/>
+      <c r="AY54" s="85"/>
+      <c r="AZ54" s="85"/>
+      <c r="BA54" s="85"/>
+      <c r="BB54" s="85"/>
+      <c r="BC54" s="81"/>
       <c r="BD54" s="45"/>
       <c r="BE54" s="45"/>
       <c r="BF54" s="45"/>
       <c r="BG54" s="45"/>
-      <c r="BH54" s="92"/>
-      <c r="BI54" s="92"/>
-      <c r="BJ54" s="92"/>
+      <c r="BH54" s="73"/>
+      <c r="BI54" s="73"/>
+      <c r="BJ54" s="73"/>
       <c r="BK54" s="55"/>
       <c r="BL54" s="55"/>
       <c r="BM54" s="55"/>
@@ -8306,15 +8324,15 @@
       <c r="AMD54" s="50"/>
     </row>
     <row r="55" spans="1:1018" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="82"/>
-      <c r="I55" s="81"/>
+      <c r="I55" s="75"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
@@ -8329,7 +8347,7 @@
       <c r="U55" s="35"/>
       <c r="V55" s="35"/>
       <c r="W55" s="83"/>
-      <c r="X55" s="81"/>
+      <c r="X55" s="75"/>
       <c r="Y55" s="35"/>
       <c r="Z55" s="35"/>
       <c r="AA55" s="35"/>
@@ -8337,8 +8355,8 @@
       <c r="AC55" s="36"/>
       <c r="AD55" s="35"/>
       <c r="AE55" s="35"/>
-      <c r="AF55" s="81"/>
-      <c r="AG55" s="81"/>
+      <c r="AF55" s="75"/>
+      <c r="AG55" s="75"/>
       <c r="AH55" s="35"/>
       <c r="AI55" s="35"/>
       <c r="AJ55" s="35"/>
@@ -8346,7 +8364,7 @@
       <c r="AL55" s="35"/>
       <c r="AM55" s="35"/>
       <c r="AN55" s="35"/>
-      <c r="AO55" s="81"/>
+      <c r="AO55" s="75"/>
       <c r="AP55" s="35"/>
       <c r="AQ55" s="35"/>
       <c r="AR55" s="35"/>
@@ -8354,18 +8372,18 @@
       <c r="AT55" s="35"/>
       <c r="AV55" s="35"/>
       <c r="AW55" s="35"/>
-      <c r="AY55" s="81"/>
-      <c r="AZ55" s="81"/>
-      <c r="BA55" s="81"/>
-      <c r="BB55" s="81"/>
-      <c r="BC55" s="72"/>
+      <c r="AY55" s="75"/>
+      <c r="AZ55" s="75"/>
+      <c r="BA55" s="75"/>
+      <c r="BB55" s="75"/>
+      <c r="BC55" s="76"/>
       <c r="BD55" s="35"/>
       <c r="BE55" s="35"/>
       <c r="BF55" s="35"/>
       <c r="BG55" s="35"/>
-      <c r="BH55" s="68"/>
-      <c r="BI55" s="73"/>
-      <c r="BJ55" s="89"/>
+      <c r="BH55" s="69"/>
+      <c r="BI55" s="71"/>
+      <c r="BJ55" s="70"/>
       <c r="BK55" s="39"/>
       <c r="BL55" s="39"/>
       <c r="BM55" s="39"/>
@@ -8422,15 +8440,15 @@
       <c r="AMD55"/>
     </row>
     <row r="56" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="81"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="75"/>
       <c r="H56" s="82"/>
-      <c r="I56" s="81"/>
+      <c r="I56" s="75"/>
       <c r="M56" s="35"/>
       <c r="N56" s="41"/>
       <c r="O56" s="35"/>
@@ -8442,36 +8460,36 @@
       <c r="U56" s="35"/>
       <c r="V56" s="43"/>
       <c r="W56" s="83"/>
-      <c r="X56" s="81"/>
+      <c r="X56" s="75"/>
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
       <c r="AA56" s="35"/>
       <c r="AB56" s="35"/>
       <c r="AC56" s="42"/>
       <c r="AE56" s="35"/>
-      <c r="AF56" s="81"/>
-      <c r="AG56" s="81"/>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75"/>
       <c r="AH56" s="43"/>
       <c r="AK56" s="35"/>
       <c r="AN56" s="35"/>
-      <c r="AO56" s="81"/>
+      <c r="AO56" s="75"/>
       <c r="AP56" s="35"/>
       <c r="AQ56" s="35"/>
       <c r="AS56" s="35"/>
       <c r="AT56" s="35"/>
       <c r="AV56" s="43"/>
-      <c r="AY56" s="81"/>
-      <c r="AZ56" s="81"/>
-      <c r="BA56" s="81"/>
-      <c r="BB56" s="81"/>
-      <c r="BC56" s="72"/>
+      <c r="AY56" s="75"/>
+      <c r="AZ56" s="75"/>
+      <c r="BA56" s="75"/>
+      <c r="BB56" s="75"/>
+      <c r="BC56" s="76"/>
       <c r="BD56" s="35"/>
       <c r="BE56" s="35"/>
       <c r="BF56" s="35"/>
       <c r="BG56" s="35"/>
-      <c r="BH56" s="89"/>
-      <c r="BI56" s="89"/>
-      <c r="BJ56" s="89"/>
+      <c r="BH56" s="70"/>
+      <c r="BI56" s="70"/>
+      <c r="BJ56" s="70"/>
       <c r="BK56" s="44"/>
       <c r="BL56" s="44"/>
       <c r="BM56" s="44"/>
@@ -8528,15 +8546,15 @@
       <c r="AMD56"/>
     </row>
     <row r="57" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="81"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="75"/>
       <c r="H57" s="82"/>
-      <c r="I57" s="81"/>
+      <c r="I57" s="75"/>
       <c r="M57" s="35"/>
       <c r="O57" s="35"/>
       <c r="P57" s="35"/>
@@ -8546,34 +8564,34 @@
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
       <c r="W57" s="83"/>
-      <c r="X57" s="81"/>
+      <c r="X57" s="75"/>
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
       <c r="AA57" s="35"/>
       <c r="AB57" s="35"/>
       <c r="AC57" s="42"/>
       <c r="AE57" s="35"/>
-      <c r="AF57" s="81"/>
-      <c r="AG57" s="81"/>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="75"/>
       <c r="AK57" s="35"/>
       <c r="AN57" s="35"/>
-      <c r="AO57" s="81"/>
+      <c r="AO57" s="75"/>
       <c r="AP57" s="35"/>
       <c r="AQ57" s="35"/>
       <c r="AS57" s="35"/>
       <c r="AT57" s="35"/>
-      <c r="AY57" s="81"/>
-      <c r="AZ57" s="81"/>
-      <c r="BA57" s="81"/>
-      <c r="BB57" s="81"/>
-      <c r="BC57" s="72"/>
+      <c r="AY57" s="75"/>
+      <c r="AZ57" s="75"/>
+      <c r="BA57" s="75"/>
+      <c r="BB57" s="75"/>
+      <c r="BC57" s="76"/>
       <c r="BD57" s="35"/>
       <c r="BE57" s="35"/>
       <c r="BF57" s="35"/>
       <c r="BG57" s="35"/>
-      <c r="BH57" s="89"/>
-      <c r="BI57" s="89"/>
-      <c r="BJ57" s="89"/>
+      <c r="BH57" s="70"/>
+      <c r="BI57" s="70"/>
+      <c r="BJ57" s="70"/>
       <c r="BK57" s="44"/>
       <c r="BL57" s="44"/>
       <c r="BM57" s="44"/>
@@ -8630,15 +8648,15 @@
       <c r="AMD57"/>
     </row>
     <row r="58" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="81"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="82"/>
-      <c r="I58" s="81"/>
+      <c r="I58" s="75"/>
       <c r="M58" s="35"/>
       <c r="O58" s="35"/>
       <c r="P58" s="35"/>
@@ -8648,32 +8666,32 @@
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
       <c r="W58" s="83"/>
-      <c r="X58" s="81"/>
+      <c r="X58" s="75"/>
       <c r="AA58" s="35"/>
       <c r="AB58" s="35"/>
       <c r="AC58" s="42"/>
       <c r="AE58" s="35"/>
-      <c r="AF58" s="81"/>
-      <c r="AG58" s="81"/>
+      <c r="AF58" s="75"/>
+      <c r="AG58" s="75"/>
       <c r="AK58" s="35"/>
       <c r="AN58" s="35"/>
-      <c r="AO58" s="81"/>
+      <c r="AO58" s="75"/>
       <c r="AP58" s="35"/>
       <c r="AQ58" s="35"/>
       <c r="AS58" s="35"/>
       <c r="AT58" s="35"/>
-      <c r="AY58" s="81"/>
-      <c r="AZ58" s="81"/>
-      <c r="BA58" s="81"/>
-      <c r="BB58" s="81"/>
-      <c r="BC58" s="72"/>
+      <c r="AY58" s="75"/>
+      <c r="AZ58" s="75"/>
+      <c r="BA58" s="75"/>
+      <c r="BB58" s="75"/>
+      <c r="BC58" s="76"/>
       <c r="BD58" s="35"/>
       <c r="BE58" s="35"/>
       <c r="BF58" s="35"/>
       <c r="BG58" s="35"/>
-      <c r="BH58" s="89"/>
-      <c r="BI58" s="89"/>
-      <c r="BJ58" s="89"/>
+      <c r="BH58" s="70"/>
+      <c r="BI58" s="70"/>
+      <c r="BJ58" s="70"/>
       <c r="BK58" s="44"/>
       <c r="BL58" s="44"/>
       <c r="BM58" s="44"/>
@@ -8730,15 +8748,15 @@
       <c r="AMD58"/>
     </row>
     <row r="59" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="81"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="81"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="82"/>
-      <c r="I59" s="81"/>
+      <c r="I59" s="75"/>
       <c r="M59" s="35"/>
       <c r="O59" s="35"/>
       <c r="P59" s="35"/>
@@ -8748,32 +8766,32 @@
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
       <c r="W59" s="83"/>
-      <c r="X59" s="81"/>
+      <c r="X59" s="75"/>
       <c r="AA59" s="35"/>
       <c r="AB59" s="35"/>
       <c r="AC59" s="42"/>
       <c r="AE59" s="35"/>
-      <c r="AF59" s="81"/>
-      <c r="AG59" s="81"/>
+      <c r="AF59" s="75"/>
+      <c r="AG59" s="75"/>
       <c r="AK59" s="35"/>
       <c r="AN59" s="35"/>
-      <c r="AO59" s="81"/>
+      <c r="AO59" s="75"/>
       <c r="AP59" s="35"/>
       <c r="AQ59" s="35"/>
       <c r="AS59" s="35"/>
       <c r="AT59" s="35"/>
-      <c r="AY59" s="81"/>
-      <c r="AZ59" s="81"/>
-      <c r="BA59" s="81"/>
-      <c r="BB59" s="81"/>
-      <c r="BC59" s="72"/>
+      <c r="AY59" s="75"/>
+      <c r="AZ59" s="75"/>
+      <c r="BA59" s="75"/>
+      <c r="BB59" s="75"/>
+      <c r="BC59" s="76"/>
       <c r="BD59" s="35"/>
       <c r="BE59" s="35"/>
       <c r="BF59" s="35"/>
       <c r="BG59" s="35"/>
-      <c r="BH59" s="89"/>
-      <c r="BI59" s="89"/>
-      <c r="BJ59" s="89"/>
+      <c r="BH59" s="70"/>
+      <c r="BI59" s="70"/>
+      <c r="BJ59" s="70"/>
       <c r="BK59" s="44"/>
       <c r="BL59" s="44"/>
       <c r="BM59" s="44"/>
@@ -8830,15 +8848,15 @@
       <c r="AMD59"/>
     </row>
     <row r="60" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="81"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="82"/>
-      <c r="I60" s="81"/>
+      <c r="I60" s="75"/>
       <c r="M60" s="35"/>
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
@@ -8848,32 +8866,32 @@
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
       <c r="W60" s="83"/>
-      <c r="X60" s="81"/>
+      <c r="X60" s="75"/>
       <c r="AA60" s="35"/>
       <c r="AB60" s="35"/>
       <c r="AC60" s="42"/>
       <c r="AE60" s="35"/>
-      <c r="AF60" s="81"/>
-      <c r="AG60" s="81"/>
+      <c r="AF60" s="75"/>
+      <c r="AG60" s="75"/>
       <c r="AK60" s="35"/>
       <c r="AN60" s="35"/>
-      <c r="AO60" s="81"/>
+      <c r="AO60" s="75"/>
       <c r="AP60" s="35"/>
       <c r="AQ60" s="35"/>
       <c r="AS60" s="35"/>
       <c r="AT60" s="35"/>
-      <c r="AY60" s="81"/>
-      <c r="AZ60" s="81"/>
-      <c r="BA60" s="81"/>
-      <c r="BB60" s="81"/>
-      <c r="BC60" s="72"/>
+      <c r="AY60" s="75"/>
+      <c r="AZ60" s="75"/>
+      <c r="BA60" s="75"/>
+      <c r="BB60" s="75"/>
+      <c r="BC60" s="76"/>
       <c r="BD60" s="35"/>
       <c r="BE60" s="35"/>
       <c r="BF60" s="35"/>
       <c r="BG60" s="35"/>
-      <c r="BH60" s="89"/>
-      <c r="BI60" s="89"/>
-      <c r="BJ60" s="89"/>
+      <c r="BH60" s="70"/>
+      <c r="BI60" s="70"/>
+      <c r="BJ60" s="70"/>
       <c r="BK60" s="44"/>
       <c r="BL60" s="44"/>
       <c r="BM60" s="44"/>
@@ -8930,15 +8948,15 @@
       <c r="AMD60"/>
     </row>
     <row r="61" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="81"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="75"/>
       <c r="H61" s="82"/>
-      <c r="I61" s="81"/>
+      <c r="I61" s="75"/>
       <c r="M61" s="35"/>
       <c r="O61" s="35"/>
       <c r="P61" s="35"/>
@@ -8948,32 +8966,32 @@
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
       <c r="W61" s="83"/>
-      <c r="X61" s="81"/>
+      <c r="X61" s="75"/>
       <c r="AA61" s="35"/>
       <c r="AB61" s="35"/>
       <c r="AC61" s="42"/>
       <c r="AE61" s="35"/>
-      <c r="AF61" s="81"/>
-      <c r="AG61" s="81"/>
+      <c r="AF61" s="75"/>
+      <c r="AG61" s="75"/>
       <c r="AK61" s="35"/>
       <c r="AN61" s="35"/>
-      <c r="AO61" s="81"/>
+      <c r="AO61" s="75"/>
       <c r="AP61" s="35"/>
       <c r="AQ61" s="35"/>
       <c r="AS61" s="35"/>
       <c r="AT61" s="35"/>
-      <c r="AY61" s="81"/>
-      <c r="AZ61" s="81"/>
-      <c r="BA61" s="81"/>
-      <c r="BB61" s="81"/>
-      <c r="BC61" s="72"/>
+      <c r="AY61" s="75"/>
+      <c r="AZ61" s="75"/>
+      <c r="BA61" s="75"/>
+      <c r="BB61" s="75"/>
+      <c r="BC61" s="76"/>
       <c r="BD61" s="35"/>
       <c r="BE61" s="35"/>
       <c r="BF61" s="35"/>
       <c r="BG61" s="35"/>
-      <c r="BH61" s="89"/>
-      <c r="BI61" s="89"/>
-      <c r="BJ61" s="89"/>
+      <c r="BH61" s="70"/>
+      <c r="BI61" s="70"/>
+      <c r="BJ61" s="70"/>
       <c r="BK61" s="44"/>
       <c r="BL61" s="44"/>
       <c r="BM61" s="44"/>
@@ -9030,15 +9048,15 @@
       <c r="AMD61"/>
     </row>
     <row r="62" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="81"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="81"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="82"/>
-      <c r="I62" s="81"/>
+      <c r="I62" s="75"/>
       <c r="M62" s="35"/>
       <c r="O62" s="35"/>
       <c r="P62" s="35"/>
@@ -9048,32 +9066,32 @@
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
       <c r="W62" s="83"/>
-      <c r="X62" s="81"/>
+      <c r="X62" s="75"/>
       <c r="AA62" s="35"/>
       <c r="AB62" s="35"/>
       <c r="AC62" s="42"/>
       <c r="AE62" s="35"/>
-      <c r="AF62" s="81"/>
-      <c r="AG62" s="81"/>
+      <c r="AF62" s="75"/>
+      <c r="AG62" s="75"/>
       <c r="AK62" s="35"/>
       <c r="AN62" s="35"/>
-      <c r="AO62" s="81"/>
+      <c r="AO62" s="75"/>
       <c r="AP62" s="35"/>
       <c r="AQ62" s="35"/>
       <c r="AS62" s="35"/>
       <c r="AT62" s="35"/>
-      <c r="AY62" s="81"/>
-      <c r="AZ62" s="81"/>
-      <c r="BA62" s="81"/>
-      <c r="BB62" s="81"/>
-      <c r="BC62" s="72"/>
+      <c r="AY62" s="75"/>
+      <c r="AZ62" s="75"/>
+      <c r="BA62" s="75"/>
+      <c r="BB62" s="75"/>
+      <c r="BC62" s="76"/>
       <c r="BD62" s="35"/>
       <c r="BE62" s="35"/>
       <c r="BF62" s="35"/>
       <c r="BG62" s="35"/>
-      <c r="BH62" s="89"/>
-      <c r="BI62" s="89"/>
-      <c r="BJ62" s="89"/>
+      <c r="BH62" s="70"/>
+      <c r="BI62" s="70"/>
+      <c r="BJ62" s="70"/>
       <c r="BK62" s="44"/>
       <c r="BL62" s="44"/>
       <c r="BM62" s="44"/>
@@ -9130,15 +9148,15 @@
       <c r="AMD62"/>
     </row>
     <row r="63" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="81"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="81"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="82"/>
-      <c r="I63" s="81"/>
+      <c r="I63" s="75"/>
       <c r="M63" s="35"/>
       <c r="O63" s="35"/>
       <c r="P63" s="35"/>
@@ -9148,32 +9166,32 @@
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
       <c r="W63" s="83"/>
-      <c r="X63" s="81"/>
+      <c r="X63" s="75"/>
       <c r="AA63" s="35"/>
       <c r="AB63" s="35"/>
       <c r="AC63" s="42"/>
       <c r="AE63" s="35"/>
-      <c r="AF63" s="81"/>
-      <c r="AG63" s="81"/>
+      <c r="AF63" s="75"/>
+      <c r="AG63" s="75"/>
       <c r="AK63" s="35"/>
       <c r="AN63" s="35"/>
-      <c r="AO63" s="81"/>
+      <c r="AO63" s="75"/>
       <c r="AP63" s="35"/>
       <c r="AQ63" s="35"/>
       <c r="AS63" s="35"/>
       <c r="AT63" s="35"/>
-      <c r="AY63" s="81"/>
-      <c r="AZ63" s="81"/>
-      <c r="BA63" s="81"/>
-      <c r="BB63" s="81"/>
-      <c r="BC63" s="72"/>
+      <c r="AY63" s="75"/>
+      <c r="AZ63" s="75"/>
+      <c r="BA63" s="75"/>
+      <c r="BB63" s="75"/>
+      <c r="BC63" s="76"/>
       <c r="BD63" s="35"/>
       <c r="BE63" s="35"/>
       <c r="BF63" s="35"/>
       <c r="BG63" s="35"/>
-      <c r="BH63" s="89"/>
-      <c r="BI63" s="89"/>
-      <c r="BJ63" s="89"/>
+      <c r="BH63" s="70"/>
+      <c r="BI63" s="70"/>
+      <c r="BJ63" s="70"/>
       <c r="BK63" s="44"/>
       <c r="BL63" s="44"/>
       <c r="BM63" s="44"/>
@@ -9230,15 +9248,15 @@
       <c r="AMD63"/>
     </row>
     <row r="64" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="81"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="81"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="75"/>
       <c r="H64" s="82"/>
-      <c r="I64" s="81"/>
+      <c r="I64" s="75"/>
       <c r="M64" s="35"/>
       <c r="O64" s="35"/>
       <c r="P64" s="35"/>
@@ -9248,32 +9266,32 @@
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
       <c r="W64" s="83"/>
-      <c r="X64" s="81"/>
+      <c r="X64" s="75"/>
       <c r="AA64" s="35"/>
       <c r="AB64" s="35"/>
       <c r="AC64" s="42"/>
       <c r="AE64" s="35"/>
-      <c r="AF64" s="81"/>
-      <c r="AG64" s="81"/>
+      <c r="AF64" s="75"/>
+      <c r="AG64" s="75"/>
       <c r="AK64" s="35"/>
       <c r="AN64" s="35"/>
-      <c r="AO64" s="81"/>
+      <c r="AO64" s="75"/>
       <c r="AP64" s="35"/>
       <c r="AQ64" s="35"/>
       <c r="AS64" s="35"/>
       <c r="AT64" s="35"/>
-      <c r="AY64" s="81"/>
-      <c r="AZ64" s="81"/>
-      <c r="BA64" s="81"/>
-      <c r="BB64" s="81"/>
-      <c r="BC64" s="72"/>
+      <c r="AY64" s="75"/>
+      <c r="AZ64" s="75"/>
+      <c r="BA64" s="75"/>
+      <c r="BB64" s="75"/>
+      <c r="BC64" s="76"/>
       <c r="BD64" s="35"/>
       <c r="BE64" s="35"/>
       <c r="BF64" s="35"/>
       <c r="BG64" s="35"/>
-      <c r="BH64" s="89"/>
-      <c r="BI64" s="89"/>
-      <c r="BJ64" s="89"/>
+      <c r="BH64" s="70"/>
+      <c r="BI64" s="70"/>
+      <c r="BJ64" s="70"/>
       <c r="BK64" s="44"/>
       <c r="BL64" s="44"/>
       <c r="BM64" s="44"/>
@@ -9330,15 +9348,15 @@
       <c r="AMD64"/>
     </row>
     <row r="65" spans="1:1018" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="75"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="85"/>
       <c r="J65" s="45"/>
       <c r="K65" s="45"/>
       <c r="L65" s="45"/>
@@ -9352,8 +9370,8 @@
       <c r="T65" s="45"/>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
-      <c r="W65" s="74"/>
-      <c r="X65" s="75"/>
+      <c r="W65" s="84"/>
+      <c r="X65" s="85"/>
       <c r="Y65" s="45"/>
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
@@ -9361,8 +9379,8 @@
       <c r="AC65" s="46"/>
       <c r="AD65" s="45"/>
       <c r="AE65" s="45"/>
-      <c r="AF65" s="75"/>
-      <c r="AG65" s="75"/>
+      <c r="AF65" s="85"/>
+      <c r="AG65" s="85"/>
       <c r="AH65" s="45"/>
       <c r="AI65" s="45"/>
       <c r="AJ65" s="45"/>
@@ -9370,7 +9388,7 @@
       <c r="AL65" s="45"/>
       <c r="AM65" s="45"/>
       <c r="AN65" s="45"/>
-      <c r="AO65" s="75"/>
+      <c r="AO65" s="85"/>
       <c r="AP65" s="45"/>
       <c r="AQ65" s="45"/>
       <c r="AR65" s="45"/>
@@ -9378,18 +9396,18 @@
       <c r="AT65" s="45"/>
       <c r="AV65" s="45"/>
       <c r="AW65" s="45"/>
-      <c r="AY65" s="75"/>
-      <c r="AZ65" s="75"/>
-      <c r="BA65" s="75"/>
-      <c r="BB65" s="75"/>
-      <c r="BC65" s="69"/>
+      <c r="AY65" s="85"/>
+      <c r="AZ65" s="85"/>
+      <c r="BA65" s="85"/>
+      <c r="BB65" s="85"/>
+      <c r="BC65" s="81"/>
       <c r="BD65" s="45"/>
       <c r="BE65" s="45"/>
       <c r="BF65" s="45"/>
       <c r="BG65" s="45"/>
-      <c r="BH65" s="90"/>
-      <c r="BI65" s="91"/>
-      <c r="BJ65" s="92"/>
+      <c r="BH65" s="72"/>
+      <c r="BI65" s="74"/>
+      <c r="BJ65" s="73"/>
       <c r="BK65" s="49"/>
       <c r="BL65" s="49"/>
       <c r="BM65" s="49"/>
@@ -9446,15 +9464,15 @@
       <c r="AMD65" s="50"/>
     </row>
     <row r="66" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="75"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="75"/>
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="85"/>
       <c r="M66" s="45"/>
       <c r="N66" s="52"/>
       <c r="O66" s="45"/>
@@ -9465,37 +9483,37 @@
       <c r="T66" s="45"/>
       <c r="U66" s="45"/>
       <c r="V66" s="54"/>
-      <c r="W66" s="74"/>
-      <c r="X66" s="75"/>
+      <c r="W66" s="84"/>
+      <c r="X66" s="85"/>
       <c r="Y66" s="54"/>
       <c r="Z66" s="54"/>
       <c r="AA66" s="45"/>
       <c r="AB66" s="45"/>
       <c r="AC66" s="53"/>
       <c r="AE66" s="45"/>
-      <c r="AF66" s="75"/>
-      <c r="AG66" s="75"/>
+      <c r="AF66" s="85"/>
+      <c r="AG66" s="85"/>
       <c r="AH66" s="54"/>
       <c r="AK66" s="45"/>
       <c r="AN66" s="45"/>
-      <c r="AO66" s="75"/>
+      <c r="AO66" s="85"/>
       <c r="AP66" s="45"/>
       <c r="AQ66" s="45"/>
       <c r="AS66" s="45"/>
       <c r="AT66" s="45"/>
       <c r="AV66" s="54"/>
-      <c r="AY66" s="75"/>
-      <c r="AZ66" s="75"/>
-      <c r="BA66" s="75"/>
-      <c r="BB66" s="75"/>
-      <c r="BC66" s="69"/>
+      <c r="AY66" s="85"/>
+      <c r="AZ66" s="85"/>
+      <c r="BA66" s="85"/>
+      <c r="BB66" s="85"/>
+      <c r="BC66" s="81"/>
       <c r="BD66" s="45"/>
       <c r="BE66" s="45"/>
       <c r="BF66" s="45"/>
       <c r="BG66" s="45"/>
-      <c r="BH66" s="92"/>
-      <c r="BI66" s="92"/>
-      <c r="BJ66" s="92"/>
+      <c r="BH66" s="73"/>
+      <c r="BI66" s="73"/>
+      <c r="BJ66" s="73"/>
       <c r="BK66" s="55"/>
       <c r="BL66" s="55"/>
       <c r="BM66" s="55"/>
@@ -9552,15 +9570,15 @@
       <c r="AMD66" s="50"/>
     </row>
     <row r="67" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="75"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="85"/>
       <c r="M67" s="45"/>
       <c r="O67" s="45"/>
       <c r="P67" s="45"/>
@@ -9569,35 +9587,35 @@
       <c r="S67" s="53"/>
       <c r="T67" s="45"/>
       <c r="U67" s="45"/>
-      <c r="W67" s="74"/>
-      <c r="X67" s="75"/>
+      <c r="W67" s="84"/>
+      <c r="X67" s="85"/>
       <c r="Y67" s="54"/>
       <c r="Z67" s="54"/>
       <c r="AA67" s="45"/>
       <c r="AB67" s="45"/>
       <c r="AC67" s="53"/>
       <c r="AE67" s="45"/>
-      <c r="AF67" s="75"/>
-      <c r="AG67" s="75"/>
+      <c r="AF67" s="85"/>
+      <c r="AG67" s="85"/>
       <c r="AK67" s="45"/>
       <c r="AN67" s="45"/>
-      <c r="AO67" s="75"/>
+      <c r="AO67" s="85"/>
       <c r="AP67" s="45"/>
       <c r="AQ67" s="45"/>
       <c r="AS67" s="45"/>
       <c r="AT67" s="45"/>
-      <c r="AY67" s="75"/>
-      <c r="AZ67" s="75"/>
-      <c r="BA67" s="75"/>
-      <c r="BB67" s="75"/>
-      <c r="BC67" s="69"/>
+      <c r="AY67" s="85"/>
+      <c r="AZ67" s="85"/>
+      <c r="BA67" s="85"/>
+      <c r="BB67" s="85"/>
+      <c r="BC67" s="81"/>
       <c r="BD67" s="45"/>
       <c r="BE67" s="45"/>
       <c r="BF67" s="45"/>
       <c r="BG67" s="45"/>
-      <c r="BH67" s="92"/>
-      <c r="BI67" s="92"/>
-      <c r="BJ67" s="92"/>
+      <c r="BH67" s="73"/>
+      <c r="BI67" s="73"/>
+      <c r="BJ67" s="73"/>
       <c r="BK67" s="55"/>
       <c r="BL67" s="55"/>
       <c r="BM67" s="55"/>
@@ -9654,15 +9672,15 @@
       <c r="AMD67" s="50"/>
     </row>
     <row r="68" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="75"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="75"/>
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="85"/>
       <c r="M68" s="45"/>
       <c r="O68" s="45"/>
       <c r="P68" s="45"/>
@@ -9671,33 +9689,33 @@
       <c r="S68" s="53"/>
       <c r="T68" s="45"/>
       <c r="U68" s="45"/>
-      <c r="W68" s="74"/>
-      <c r="X68" s="75"/>
+      <c r="W68" s="84"/>
+      <c r="X68" s="85"/>
       <c r="AA68" s="45"/>
       <c r="AB68" s="45"/>
       <c r="AC68" s="53"/>
       <c r="AE68" s="45"/>
-      <c r="AF68" s="75"/>
-      <c r="AG68" s="75"/>
+      <c r="AF68" s="85"/>
+      <c r="AG68" s="85"/>
       <c r="AK68" s="45"/>
       <c r="AN68" s="45"/>
-      <c r="AO68" s="75"/>
+      <c r="AO68" s="85"/>
       <c r="AP68" s="45"/>
       <c r="AQ68" s="45"/>
       <c r="AS68" s="45"/>
       <c r="AT68" s="45"/>
-      <c r="AY68" s="75"/>
-      <c r="AZ68" s="75"/>
-      <c r="BA68" s="75"/>
-      <c r="BB68" s="75"/>
-      <c r="BC68" s="69"/>
+      <c r="AY68" s="85"/>
+      <c r="AZ68" s="85"/>
+      <c r="BA68" s="85"/>
+      <c r="BB68" s="85"/>
+      <c r="BC68" s="81"/>
       <c r="BD68" s="45"/>
       <c r="BE68" s="45"/>
       <c r="BF68" s="45"/>
       <c r="BG68" s="45"/>
-      <c r="BH68" s="92"/>
-      <c r="BI68" s="92"/>
-      <c r="BJ68" s="92"/>
+      <c r="BH68" s="73"/>
+      <c r="BI68" s="73"/>
+      <c r="BJ68" s="73"/>
       <c r="BK68" s="55"/>
       <c r="BL68" s="55"/>
       <c r="BM68" s="55"/>
@@ -9754,15 +9772,15 @@
       <c r="AMD68" s="50"/>
     </row>
     <row r="69" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="75"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="75"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="85"/>
       <c r="M69" s="45"/>
       <c r="O69" s="45"/>
       <c r="P69" s="45"/>
@@ -9771,33 +9789,33 @@
       <c r="S69" s="53"/>
       <c r="T69" s="45"/>
       <c r="U69" s="45"/>
-      <c r="W69" s="74"/>
-      <c r="X69" s="75"/>
+      <c r="W69" s="84"/>
+      <c r="X69" s="85"/>
       <c r="AA69" s="45"/>
       <c r="AB69" s="45"/>
       <c r="AC69" s="53"/>
       <c r="AE69" s="45"/>
-      <c r="AF69" s="75"/>
-      <c r="AG69" s="75"/>
+      <c r="AF69" s="85"/>
+      <c r="AG69" s="85"/>
       <c r="AK69" s="45"/>
       <c r="AN69" s="45"/>
-      <c r="AO69" s="75"/>
+      <c r="AO69" s="85"/>
       <c r="AP69" s="45"/>
       <c r="AQ69" s="45"/>
       <c r="AS69" s="45"/>
       <c r="AT69" s="45"/>
-      <c r="AY69" s="75"/>
-      <c r="AZ69" s="75"/>
-      <c r="BA69" s="75"/>
-      <c r="BB69" s="75"/>
-      <c r="BC69" s="69"/>
+      <c r="AY69" s="85"/>
+      <c r="AZ69" s="85"/>
+      <c r="BA69" s="85"/>
+      <c r="BB69" s="85"/>
+      <c r="BC69" s="81"/>
       <c r="BD69" s="45"/>
       <c r="BE69" s="45"/>
       <c r="BF69" s="45"/>
       <c r="BG69" s="45"/>
-      <c r="BH69" s="92"/>
-      <c r="BI69" s="92"/>
-      <c r="BJ69" s="92"/>
+      <c r="BH69" s="73"/>
+      <c r="BI69" s="73"/>
+      <c r="BJ69" s="73"/>
       <c r="BK69" s="55"/>
       <c r="BL69" s="55"/>
       <c r="BM69" s="55"/>
@@ -9854,15 +9872,15 @@
       <c r="AMD69" s="50"/>
     </row>
     <row r="70" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="75"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="75"/>
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="85"/>
       <c r="M70" s="45"/>
       <c r="O70" s="45"/>
       <c r="P70" s="45"/>
@@ -9871,33 +9889,33 @@
       <c r="S70" s="53"/>
       <c r="T70" s="45"/>
       <c r="U70" s="45"/>
-      <c r="W70" s="74"/>
-      <c r="X70" s="75"/>
+      <c r="W70" s="84"/>
+      <c r="X70" s="85"/>
       <c r="AA70" s="45"/>
       <c r="AB70" s="45"/>
       <c r="AC70" s="53"/>
       <c r="AE70" s="45"/>
-      <c r="AF70" s="75"/>
-      <c r="AG70" s="75"/>
+      <c r="AF70" s="85"/>
+      <c r="AG70" s="85"/>
       <c r="AK70" s="45"/>
       <c r="AN70" s="45"/>
-      <c r="AO70" s="75"/>
+      <c r="AO70" s="85"/>
       <c r="AP70" s="45"/>
       <c r="AQ70" s="45"/>
       <c r="AS70" s="45"/>
       <c r="AT70" s="45"/>
-      <c r="AY70" s="75"/>
-      <c r="AZ70" s="75"/>
-      <c r="BA70" s="75"/>
-      <c r="BB70" s="75"/>
-      <c r="BC70" s="69"/>
+      <c r="AY70" s="85"/>
+      <c r="AZ70" s="85"/>
+      <c r="BA70" s="85"/>
+      <c r="BB70" s="85"/>
+      <c r="BC70" s="81"/>
       <c r="BD70" s="45"/>
       <c r="BE70" s="45"/>
       <c r="BF70" s="45"/>
       <c r="BG70" s="45"/>
-      <c r="BH70" s="92"/>
-      <c r="BI70" s="92"/>
-      <c r="BJ70" s="92"/>
+      <c r="BH70" s="73"/>
+      <c r="BI70" s="73"/>
+      <c r="BJ70" s="73"/>
       <c r="BK70" s="55"/>
       <c r="BL70" s="55"/>
       <c r="BM70" s="55"/>
@@ -9954,15 +9972,15 @@
       <c r="AMD70" s="50"/>
     </row>
     <row r="71" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="75"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="75"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="85"/>
       <c r="M71" s="45"/>
       <c r="O71" s="45"/>
       <c r="P71" s="45"/>
@@ -9971,33 +9989,33 @@
       <c r="S71" s="53"/>
       <c r="T71" s="45"/>
       <c r="U71" s="45"/>
-      <c r="W71" s="74"/>
-      <c r="X71" s="75"/>
+      <c r="W71" s="84"/>
+      <c r="X71" s="85"/>
       <c r="AA71" s="45"/>
       <c r="AB71" s="45"/>
       <c r="AC71" s="53"/>
       <c r="AE71" s="45"/>
-      <c r="AF71" s="75"/>
-      <c r="AG71" s="75"/>
+      <c r="AF71" s="85"/>
+      <c r="AG71" s="85"/>
       <c r="AK71" s="45"/>
       <c r="AN71" s="45"/>
-      <c r="AO71" s="75"/>
+      <c r="AO71" s="85"/>
       <c r="AP71" s="45"/>
       <c r="AQ71" s="45"/>
       <c r="AS71" s="45"/>
       <c r="AT71" s="45"/>
-      <c r="AY71" s="75"/>
-      <c r="AZ71" s="75"/>
-      <c r="BA71" s="75"/>
-      <c r="BB71" s="75"/>
-      <c r="BC71" s="69"/>
+      <c r="AY71" s="85"/>
+      <c r="AZ71" s="85"/>
+      <c r="BA71" s="85"/>
+      <c r="BB71" s="85"/>
+      <c r="BC71" s="81"/>
       <c r="BD71" s="45"/>
       <c r="BE71" s="45"/>
       <c r="BF71" s="45"/>
       <c r="BG71" s="45"/>
-      <c r="BH71" s="92"/>
-      <c r="BI71" s="92"/>
-      <c r="BJ71" s="92"/>
+      <c r="BH71" s="73"/>
+      <c r="BI71" s="73"/>
+      <c r="BJ71" s="73"/>
       <c r="BK71" s="55"/>
       <c r="BL71" s="55"/>
       <c r="BM71" s="55"/>
@@ -10054,15 +10072,15 @@
       <c r="AMD71" s="50"/>
     </row>
     <row r="72" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="75"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="75"/>
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="85"/>
       <c r="M72" s="45"/>
       <c r="O72" s="45"/>
       <c r="P72" s="45"/>
@@ -10071,33 +10089,33 @@
       <c r="S72" s="53"/>
       <c r="T72" s="45"/>
       <c r="U72" s="45"/>
-      <c r="W72" s="74"/>
-      <c r="X72" s="75"/>
+      <c r="W72" s="84"/>
+      <c r="X72" s="85"/>
       <c r="AA72" s="45"/>
       <c r="AB72" s="45"/>
       <c r="AC72" s="53"/>
       <c r="AE72" s="45"/>
-      <c r="AF72" s="75"/>
-      <c r="AG72" s="75"/>
+      <c r="AF72" s="85"/>
+      <c r="AG72" s="85"/>
       <c r="AK72" s="45"/>
       <c r="AN72" s="45"/>
-      <c r="AO72" s="75"/>
+      <c r="AO72" s="85"/>
       <c r="AP72" s="45"/>
       <c r="AQ72" s="45"/>
       <c r="AS72" s="45"/>
       <c r="AT72" s="45"/>
-      <c r="AY72" s="75"/>
-      <c r="AZ72" s="75"/>
-      <c r="BA72" s="75"/>
-      <c r="BB72" s="75"/>
-      <c r="BC72" s="69"/>
+      <c r="AY72" s="85"/>
+      <c r="AZ72" s="85"/>
+      <c r="BA72" s="85"/>
+      <c r="BB72" s="85"/>
+      <c r="BC72" s="81"/>
       <c r="BD72" s="45"/>
       <c r="BE72" s="45"/>
       <c r="BF72" s="45"/>
       <c r="BG72" s="45"/>
-      <c r="BH72" s="92"/>
-      <c r="BI72" s="92"/>
-      <c r="BJ72" s="92"/>
+      <c r="BH72" s="73"/>
+      <c r="BI72" s="73"/>
+      <c r="BJ72" s="73"/>
       <c r="BK72" s="55"/>
       <c r="BL72" s="55"/>
       <c r="BM72" s="55"/>
@@ -10154,15 +10172,15 @@
       <c r="AMD72" s="50"/>
     </row>
     <row r="73" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="75"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="75"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="85"/>
       <c r="M73" s="45"/>
       <c r="O73" s="45"/>
       <c r="P73" s="45"/>
@@ -10171,33 +10189,33 @@
       <c r="S73" s="53"/>
       <c r="T73" s="45"/>
       <c r="U73" s="45"/>
-      <c r="W73" s="74"/>
-      <c r="X73" s="75"/>
+      <c r="W73" s="84"/>
+      <c r="X73" s="85"/>
       <c r="AA73" s="45"/>
       <c r="AB73" s="45"/>
       <c r="AC73" s="53"/>
       <c r="AE73" s="45"/>
-      <c r="AF73" s="75"/>
-      <c r="AG73" s="75"/>
+      <c r="AF73" s="85"/>
+      <c r="AG73" s="85"/>
       <c r="AK73" s="45"/>
       <c r="AN73" s="45"/>
-      <c r="AO73" s="75"/>
+      <c r="AO73" s="85"/>
       <c r="AP73" s="45"/>
       <c r="AQ73" s="45"/>
       <c r="AS73" s="45"/>
       <c r="AT73" s="45"/>
-      <c r="AY73" s="75"/>
-      <c r="AZ73" s="75"/>
-      <c r="BA73" s="75"/>
-      <c r="BB73" s="75"/>
-      <c r="BC73" s="69"/>
+      <c r="AY73" s="85"/>
+      <c r="AZ73" s="85"/>
+      <c r="BA73" s="85"/>
+      <c r="BB73" s="85"/>
+      <c r="BC73" s="81"/>
       <c r="BD73" s="45"/>
       <c r="BE73" s="45"/>
       <c r="BF73" s="45"/>
       <c r="BG73" s="45"/>
-      <c r="BH73" s="92"/>
-      <c r="BI73" s="92"/>
-      <c r="BJ73" s="92"/>
+      <c r="BH73" s="73"/>
+      <c r="BI73" s="73"/>
+      <c r="BJ73" s="73"/>
       <c r="BK73" s="55"/>
       <c r="BL73" s="55"/>
       <c r="BM73" s="55"/>
@@ -10254,15 +10272,15 @@
       <c r="AMD73" s="50"/>
     </row>
     <row r="74" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="75"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="75"/>
+      <c r="A74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="85"/>
       <c r="M74" s="45"/>
       <c r="O74" s="45"/>
       <c r="P74" s="45"/>
@@ -10270,32 +10288,32 @@
       <c r="S74" s="53"/>
       <c r="T74" s="45"/>
       <c r="U74" s="45"/>
-      <c r="W74" s="74"/>
-      <c r="X74" s="75"/>
+      <c r="W74" s="84"/>
+      <c r="X74" s="85"/>
       <c r="AA74" s="45"/>
       <c r="AB74" s="45"/>
       <c r="AC74" s="53"/>
       <c r="AE74" s="45"/>
-      <c r="AF74" s="75"/>
-      <c r="AG74" s="75"/>
+      <c r="AF74" s="85"/>
+      <c r="AG74" s="85"/>
       <c r="AK74" s="45"/>
       <c r="AN74" s="45"/>
-      <c r="AO74" s="75"/>
+      <c r="AO74" s="85"/>
       <c r="AP74" s="45"/>
       <c r="AS74" s="45"/>
       <c r="AT74" s="45"/>
-      <c r="AY74" s="75"/>
-      <c r="AZ74" s="75"/>
-      <c r="BA74" s="75"/>
-      <c r="BB74" s="75"/>
-      <c r="BC74" s="69"/>
+      <c r="AY74" s="85"/>
+      <c r="AZ74" s="85"/>
+      <c r="BA74" s="85"/>
+      <c r="BB74" s="85"/>
+      <c r="BC74" s="81"/>
       <c r="BD74" s="45"/>
       <c r="BE74" s="45"/>
       <c r="BF74" s="45"/>
       <c r="BG74" s="45"/>
-      <c r="BH74" s="92"/>
-      <c r="BI74" s="92"/>
-      <c r="BJ74" s="92"/>
+      <c r="BH74" s="73"/>
+      <c r="BI74" s="73"/>
+      <c r="BJ74" s="73"/>
       <c r="BK74" s="55"/>
       <c r="BL74" s="55"/>
       <c r="BM74" s="55"/>
@@ -10352,15 +10370,15 @@
       <c r="AMD74" s="50"/>
     </row>
     <row r="75" spans="1:1018" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="81"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
       <c r="H75" s="82"/>
-      <c r="I75" s="81"/>
+      <c r="I75" s="75"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="35"/>
@@ -10375,7 +10393,7 @@
       <c r="U75" s="35"/>
       <c r="V75" s="35"/>
       <c r="W75" s="83"/>
-      <c r="X75" s="81"/>
+      <c r="X75" s="75"/>
       <c r="Y75" s="35"/>
       <c r="Z75" s="35"/>
       <c r="AA75" s="35"/>
@@ -10383,8 +10401,8 @@
       <c r="AC75" s="36"/>
       <c r="AD75" s="35"/>
       <c r="AE75" s="35"/>
-      <c r="AF75" s="81"/>
-      <c r="AG75" s="81"/>
+      <c r="AF75" s="75"/>
+      <c r="AG75" s="75"/>
       <c r="AH75" s="35"/>
       <c r="AI75" s="35"/>
       <c r="AJ75" s="35"/>
@@ -10392,7 +10410,7 @@
       <c r="AL75" s="35"/>
       <c r="AM75" s="35"/>
       <c r="AN75" s="35"/>
-      <c r="AO75" s="81"/>
+      <c r="AO75" s="75"/>
       <c r="AP75" s="35"/>
       <c r="AQ75" s="35"/>
       <c r="AR75" s="35"/>
@@ -10400,18 +10418,18 @@
       <c r="AT75" s="35"/>
       <c r="AV75" s="35"/>
       <c r="AW75" s="35"/>
-      <c r="AY75" s="81"/>
-      <c r="AZ75" s="81"/>
-      <c r="BA75" s="81"/>
-      <c r="BB75" s="81"/>
-      <c r="BC75" s="72"/>
+      <c r="AY75" s="75"/>
+      <c r="AZ75" s="75"/>
+      <c r="BA75" s="75"/>
+      <c r="BB75" s="75"/>
+      <c r="BC75" s="76"/>
       <c r="BD75" s="35"/>
       <c r="BE75" s="35"/>
       <c r="BF75" s="35"/>
       <c r="BG75" s="35"/>
-      <c r="BH75" s="68"/>
-      <c r="BI75" s="73"/>
-      <c r="BJ75" s="89"/>
+      <c r="BH75" s="69"/>
+      <c r="BI75" s="71"/>
+      <c r="BJ75" s="70"/>
       <c r="BK75" s="39"/>
       <c r="BL75" s="39"/>
       <c r="BM75" s="39"/>
@@ -10468,15 +10486,15 @@
       <c r="AMD75"/>
     </row>
     <row r="76" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="81"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="82"/>
-      <c r="I76" s="81"/>
+      <c r="I76" s="75"/>
       <c r="M76" s="35"/>
       <c r="N76" s="41"/>
       <c r="O76" s="35"/>
@@ -10488,36 +10506,36 @@
       <c r="U76" s="35"/>
       <c r="V76" s="43"/>
       <c r="W76" s="83"/>
-      <c r="X76" s="81"/>
+      <c r="X76" s="75"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
       <c r="AA76" s="35"/>
       <c r="AB76" s="35"/>
       <c r="AC76" s="42"/>
       <c r="AE76" s="35"/>
-      <c r="AF76" s="81"/>
-      <c r="AG76" s="81"/>
+      <c r="AF76" s="75"/>
+      <c r="AG76" s="75"/>
       <c r="AH76" s="43"/>
       <c r="AK76" s="35"/>
       <c r="AN76" s="35"/>
-      <c r="AO76" s="81"/>
+      <c r="AO76" s="75"/>
       <c r="AP76" s="35"/>
       <c r="AQ76" s="35"/>
       <c r="AS76" s="35"/>
       <c r="AT76" s="35"/>
       <c r="AV76" s="43"/>
-      <c r="AY76" s="81"/>
-      <c r="AZ76" s="81"/>
-      <c r="BA76" s="81"/>
-      <c r="BB76" s="81"/>
-      <c r="BC76" s="72"/>
+      <c r="AY76" s="75"/>
+      <c r="AZ76" s="75"/>
+      <c r="BA76" s="75"/>
+      <c r="BB76" s="75"/>
+      <c r="BC76" s="76"/>
       <c r="BD76" s="35"/>
       <c r="BE76" s="35"/>
       <c r="BF76" s="35"/>
       <c r="BG76" s="35"/>
-      <c r="BH76" s="89"/>
-      <c r="BI76" s="89"/>
-      <c r="BJ76" s="89"/>
+      <c r="BH76" s="70"/>
+      <c r="BI76" s="70"/>
+      <c r="BJ76" s="70"/>
       <c r="BK76" s="44"/>
       <c r="BL76" s="44"/>
       <c r="BM76" s="44"/>
@@ -10574,15 +10592,15 @@
       <c r="AMD76"/>
     </row>
     <row r="77" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="81"/>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="81"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="75"/>
       <c r="H77" s="82"/>
-      <c r="I77" s="81"/>
+      <c r="I77" s="75"/>
       <c r="M77" s="35"/>
       <c r="O77" s="35"/>
       <c r="P77" s="35"/>
@@ -10592,34 +10610,34 @@
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
       <c r="W77" s="83"/>
-      <c r="X77" s="81"/>
+      <c r="X77" s="75"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
       <c r="AA77" s="35"/>
       <c r="AB77" s="35"/>
       <c r="AC77" s="42"/>
       <c r="AE77" s="35"/>
-      <c r="AF77" s="81"/>
-      <c r="AG77" s="81"/>
+      <c r="AF77" s="75"/>
+      <c r="AG77" s="75"/>
       <c r="AK77" s="35"/>
       <c r="AN77" s="35"/>
-      <c r="AO77" s="81"/>
+      <c r="AO77" s="75"/>
       <c r="AP77" s="35"/>
       <c r="AQ77" s="35"/>
       <c r="AS77" s="35"/>
       <c r="AT77" s="35"/>
-      <c r="AY77" s="81"/>
-      <c r="AZ77" s="81"/>
-      <c r="BA77" s="81"/>
-      <c r="BB77" s="81"/>
-      <c r="BC77" s="72"/>
+      <c r="AY77" s="75"/>
+      <c r="AZ77" s="75"/>
+      <c r="BA77" s="75"/>
+      <c r="BB77" s="75"/>
+      <c r="BC77" s="76"/>
       <c r="BD77" s="35"/>
       <c r="BE77" s="35"/>
       <c r="BF77" s="35"/>
       <c r="BG77" s="35"/>
-      <c r="BH77" s="89"/>
-      <c r="BI77" s="89"/>
-      <c r="BJ77" s="89"/>
+      <c r="BH77" s="70"/>
+      <c r="BI77" s="70"/>
+      <c r="BJ77" s="70"/>
       <c r="BK77" s="44"/>
       <c r="BL77" s="44"/>
       <c r="BM77" s="44"/>
@@ -10676,15 +10694,15 @@
       <c r="AMD77"/>
     </row>
     <row r="78" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="81"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="81"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="82"/>
-      <c r="I78" s="81"/>
+      <c r="I78" s="75"/>
       <c r="M78" s="35"/>
       <c r="O78" s="35"/>
       <c r="P78" s="35"/>
@@ -10694,32 +10712,32 @@
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
       <c r="W78" s="83"/>
-      <c r="X78" s="81"/>
+      <c r="X78" s="75"/>
       <c r="AA78" s="35"/>
       <c r="AB78" s="35"/>
       <c r="AC78" s="42"/>
       <c r="AE78" s="35"/>
-      <c r="AF78" s="81"/>
-      <c r="AG78" s="81"/>
+      <c r="AF78" s="75"/>
+      <c r="AG78" s="75"/>
       <c r="AK78" s="35"/>
       <c r="AN78" s="35"/>
-      <c r="AO78" s="81"/>
+      <c r="AO78" s="75"/>
       <c r="AP78" s="35"/>
       <c r="AQ78" s="35"/>
       <c r="AS78" s="35"/>
       <c r="AT78" s="35"/>
-      <c r="AY78" s="81"/>
-      <c r="AZ78" s="81"/>
-      <c r="BA78" s="81"/>
-      <c r="BB78" s="81"/>
-      <c r="BC78" s="72"/>
+      <c r="AY78" s="75"/>
+      <c r="AZ78" s="75"/>
+      <c r="BA78" s="75"/>
+      <c r="BB78" s="75"/>
+      <c r="BC78" s="76"/>
       <c r="BD78" s="35"/>
       <c r="BE78" s="35"/>
       <c r="BF78" s="35"/>
       <c r="BG78" s="35"/>
-      <c r="BH78" s="89"/>
-      <c r="BI78" s="89"/>
-      <c r="BJ78" s="89"/>
+      <c r="BH78" s="70"/>
+      <c r="BI78" s="70"/>
+      <c r="BJ78" s="70"/>
       <c r="BK78" s="44"/>
       <c r="BL78" s="44"/>
       <c r="BM78" s="44"/>
@@ -10776,15 +10794,15 @@
       <c r="AMD78"/>
     </row>
     <row r="79" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="81"/>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="81"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="75"/>
       <c r="H79" s="82"/>
-      <c r="I79" s="81"/>
+      <c r="I79" s="75"/>
       <c r="M79" s="35"/>
       <c r="O79" s="35"/>
       <c r="P79" s="35"/>
@@ -10794,32 +10812,32 @@
       <c r="T79" s="35"/>
       <c r="U79" s="35"/>
       <c r="W79" s="83"/>
-      <c r="X79" s="81"/>
+      <c r="X79" s="75"/>
       <c r="AA79" s="35"/>
       <c r="AB79" s="35"/>
       <c r="AC79" s="42"/>
       <c r="AE79" s="35"/>
-      <c r="AF79" s="81"/>
-      <c r="AG79" s="81"/>
+      <c r="AF79" s="75"/>
+      <c r="AG79" s="75"/>
       <c r="AK79" s="35"/>
       <c r="AN79" s="35"/>
-      <c r="AO79" s="81"/>
+      <c r="AO79" s="75"/>
       <c r="AP79" s="35"/>
       <c r="AQ79" s="35"/>
       <c r="AS79" s="35"/>
       <c r="AT79" s="35"/>
-      <c r="AY79" s="81"/>
-      <c r="AZ79" s="81"/>
-      <c r="BA79" s="81"/>
-      <c r="BB79" s="81"/>
-      <c r="BC79" s="72"/>
+      <c r="AY79" s="75"/>
+      <c r="AZ79" s="75"/>
+      <c r="BA79" s="75"/>
+      <c r="BB79" s="75"/>
+      <c r="BC79" s="76"/>
       <c r="BD79" s="35"/>
       <c r="BE79" s="35"/>
       <c r="BF79" s="35"/>
       <c r="BG79" s="35"/>
-      <c r="BH79" s="89"/>
-      <c r="BI79" s="89"/>
-      <c r="BJ79" s="89"/>
+      <c r="BH79" s="70"/>
+      <c r="BI79" s="70"/>
+      <c r="BJ79" s="70"/>
       <c r="BK79" s="44"/>
       <c r="BL79" s="44"/>
       <c r="BM79" s="44"/>
@@ -10876,15 +10894,15 @@
       <c r="AMD79"/>
     </row>
     <row r="80" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="81"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="81"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="75"/>
       <c r="H80" s="82"/>
-      <c r="I80" s="81"/>
+      <c r="I80" s="75"/>
       <c r="M80" s="35"/>
       <c r="O80" s="35"/>
       <c r="P80" s="35"/>
@@ -10894,32 +10912,32 @@
       <c r="T80" s="35"/>
       <c r="U80" s="35"/>
       <c r="W80" s="83"/>
-      <c r="X80" s="81"/>
+      <c r="X80" s="75"/>
       <c r="AA80" s="35"/>
       <c r="AB80" s="35"/>
       <c r="AC80" s="42"/>
       <c r="AE80" s="35"/>
-      <c r="AF80" s="81"/>
-      <c r="AG80" s="81"/>
+      <c r="AF80" s="75"/>
+      <c r="AG80" s="75"/>
       <c r="AK80" s="35"/>
       <c r="AN80" s="35"/>
-      <c r="AO80" s="81"/>
+      <c r="AO80" s="75"/>
       <c r="AP80" s="35"/>
       <c r="AQ80" s="35"/>
       <c r="AS80" s="35"/>
       <c r="AT80" s="35"/>
-      <c r="AY80" s="81"/>
-      <c r="AZ80" s="81"/>
-      <c r="BA80" s="81"/>
-      <c r="BB80" s="81"/>
-      <c r="BC80" s="72"/>
+      <c r="AY80" s="75"/>
+      <c r="AZ80" s="75"/>
+      <c r="BA80" s="75"/>
+      <c r="BB80" s="75"/>
+      <c r="BC80" s="76"/>
       <c r="BD80" s="35"/>
       <c r="BE80" s="35"/>
       <c r="BF80" s="35"/>
       <c r="BG80" s="35"/>
-      <c r="BH80" s="89"/>
-      <c r="BI80" s="89"/>
-      <c r="BJ80" s="89"/>
+      <c r="BH80" s="70"/>
+      <c r="BI80" s="70"/>
+      <c r="BJ80" s="70"/>
       <c r="BK80" s="44"/>
       <c r="BL80" s="44"/>
       <c r="BM80" s="44"/>
@@ -10976,15 +10994,15 @@
       <c r="AMD80"/>
     </row>
     <row r="81" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="81"/>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="81"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="82"/>
-      <c r="I81" s="81"/>
+      <c r="I81" s="75"/>
       <c r="M81" s="35"/>
       <c r="O81" s="35"/>
       <c r="P81" s="35"/>
@@ -10994,32 +11012,32 @@
       <c r="T81" s="35"/>
       <c r="U81" s="35"/>
       <c r="W81" s="83"/>
-      <c r="X81" s="81"/>
+      <c r="X81" s="75"/>
       <c r="AA81" s="35"/>
       <c r="AB81" s="35"/>
       <c r="AC81" s="42"/>
       <c r="AE81" s="35"/>
-      <c r="AF81" s="81"/>
-      <c r="AG81" s="81"/>
+      <c r="AF81" s="75"/>
+      <c r="AG81" s="75"/>
       <c r="AK81" s="35"/>
       <c r="AN81" s="35"/>
-      <c r="AO81" s="81"/>
+      <c r="AO81" s="75"/>
       <c r="AP81" s="35"/>
       <c r="AQ81" s="35"/>
       <c r="AS81" s="35"/>
       <c r="AT81" s="35"/>
-      <c r="AY81" s="81"/>
-      <c r="AZ81" s="81"/>
-      <c r="BA81" s="81"/>
-      <c r="BB81" s="81"/>
-      <c r="BC81" s="72"/>
+      <c r="AY81" s="75"/>
+      <c r="AZ81" s="75"/>
+      <c r="BA81" s="75"/>
+      <c r="BB81" s="75"/>
+      <c r="BC81" s="76"/>
       <c r="BD81" s="35"/>
       <c r="BE81" s="35"/>
       <c r="BF81" s="35"/>
       <c r="BG81" s="35"/>
-      <c r="BH81" s="89"/>
-      <c r="BI81" s="89"/>
-      <c r="BJ81" s="89"/>
+      <c r="BH81" s="70"/>
+      <c r="BI81" s="70"/>
+      <c r="BJ81" s="70"/>
       <c r="BK81" s="44"/>
       <c r="BL81" s="44"/>
       <c r="BM81" s="44"/>
@@ -11076,15 +11094,15 @@
       <c r="AMD81"/>
     </row>
     <row r="82" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="81"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="81"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="75"/>
       <c r="H82" s="82"/>
-      <c r="I82" s="81"/>
+      <c r="I82" s="75"/>
       <c r="M82" s="35"/>
       <c r="O82" s="35"/>
       <c r="P82" s="35"/>
@@ -11094,32 +11112,32 @@
       <c r="T82" s="35"/>
       <c r="U82" s="35"/>
       <c r="W82" s="83"/>
-      <c r="X82" s="81"/>
+      <c r="X82" s="75"/>
       <c r="AA82" s="35"/>
       <c r="AB82" s="35"/>
       <c r="AC82" s="42"/>
       <c r="AE82" s="35"/>
-      <c r="AF82" s="81"/>
-      <c r="AG82" s="81"/>
+      <c r="AF82" s="75"/>
+      <c r="AG82" s="75"/>
       <c r="AK82" s="35"/>
       <c r="AN82" s="35"/>
-      <c r="AO82" s="81"/>
+      <c r="AO82" s="75"/>
       <c r="AP82" s="35"/>
       <c r="AQ82" s="35"/>
       <c r="AS82" s="35"/>
       <c r="AT82" s="35"/>
-      <c r="AY82" s="81"/>
-      <c r="AZ82" s="81"/>
-      <c r="BA82" s="81"/>
-      <c r="BB82" s="81"/>
-      <c r="BC82" s="72"/>
+      <c r="AY82" s="75"/>
+      <c r="AZ82" s="75"/>
+      <c r="BA82" s="75"/>
+      <c r="BB82" s="75"/>
+      <c r="BC82" s="76"/>
       <c r="BD82" s="35"/>
       <c r="BE82" s="35"/>
       <c r="BF82" s="35"/>
       <c r="BG82" s="35"/>
-      <c r="BH82" s="89"/>
-      <c r="BI82" s="89"/>
-      <c r="BJ82" s="89"/>
+      <c r="BH82" s="70"/>
+      <c r="BI82" s="70"/>
+      <c r="BJ82" s="70"/>
       <c r="BK82" s="44"/>
       <c r="BL82" s="44"/>
       <c r="BM82" s="44"/>
@@ -11176,15 +11194,15 @@
       <c r="AMD82"/>
     </row>
     <row r="83" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="81"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="81"/>
+      <c r="A83" s="75"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="75"/>
       <c r="H83" s="82"/>
-      <c r="I83" s="81"/>
+      <c r="I83" s="75"/>
       <c r="M83" s="35"/>
       <c r="O83" s="35"/>
       <c r="P83" s="35"/>
@@ -11194,32 +11212,32 @@
       <c r="T83" s="35"/>
       <c r="U83" s="35"/>
       <c r="W83" s="83"/>
-      <c r="X83" s="81"/>
+      <c r="X83" s="75"/>
       <c r="AA83" s="35"/>
       <c r="AB83" s="35"/>
       <c r="AC83" s="42"/>
       <c r="AE83" s="35"/>
-      <c r="AF83" s="81"/>
-      <c r="AG83" s="81"/>
+      <c r="AF83" s="75"/>
+      <c r="AG83" s="75"/>
       <c r="AK83" s="35"/>
       <c r="AN83" s="35"/>
-      <c r="AO83" s="81"/>
+      <c r="AO83" s="75"/>
       <c r="AP83" s="35"/>
       <c r="AQ83" s="35"/>
       <c r="AS83" s="35"/>
       <c r="AT83" s="35"/>
-      <c r="AY83" s="81"/>
-      <c r="AZ83" s="81"/>
-      <c r="BA83" s="81"/>
-      <c r="BB83" s="81"/>
-      <c r="BC83" s="72"/>
+      <c r="AY83" s="75"/>
+      <c r="AZ83" s="75"/>
+      <c r="BA83" s="75"/>
+      <c r="BB83" s="75"/>
+      <c r="BC83" s="76"/>
       <c r="BD83" s="35"/>
       <c r="BE83" s="35"/>
       <c r="BF83" s="35"/>
       <c r="BG83" s="35"/>
-      <c r="BH83" s="89"/>
-      <c r="BI83" s="89"/>
-      <c r="BJ83" s="89"/>
+      <c r="BH83" s="70"/>
+      <c r="BI83" s="70"/>
+      <c r="BJ83" s="70"/>
       <c r="BK83" s="44"/>
       <c r="BL83" s="44"/>
       <c r="BM83" s="44"/>
@@ -11276,15 +11294,15 @@
       <c r="AMD83"/>
     </row>
     <row r="84" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="81"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="75"/>
       <c r="H84" s="82"/>
-      <c r="I84" s="81"/>
+      <c r="I84" s="75"/>
       <c r="M84" s="35"/>
       <c r="O84" s="35"/>
       <c r="P84" s="35"/>
@@ -11294,32 +11312,32 @@
       <c r="T84" s="35"/>
       <c r="U84" s="35"/>
       <c r="W84" s="83"/>
-      <c r="X84" s="81"/>
+      <c r="X84" s="75"/>
       <c r="AA84" s="35"/>
       <c r="AB84" s="35"/>
       <c r="AC84" s="42"/>
       <c r="AE84" s="35"/>
-      <c r="AF84" s="81"/>
-      <c r="AG84" s="81"/>
+      <c r="AF84" s="75"/>
+      <c r="AG84" s="75"/>
       <c r="AK84" s="35"/>
       <c r="AN84" s="35"/>
-      <c r="AO84" s="81"/>
+      <c r="AO84" s="75"/>
       <c r="AP84" s="35"/>
       <c r="AQ84" s="35"/>
       <c r="AS84" s="35"/>
       <c r="AT84" s="35"/>
-      <c r="AY84" s="81"/>
-      <c r="AZ84" s="81"/>
-      <c r="BA84" s="81"/>
-      <c r="BB84" s="81"/>
-      <c r="BC84" s="72"/>
+      <c r="AY84" s="75"/>
+      <c r="AZ84" s="75"/>
+      <c r="BA84" s="75"/>
+      <c r="BB84" s="75"/>
+      <c r="BC84" s="76"/>
       <c r="BD84" s="35"/>
       <c r="BE84" s="35"/>
       <c r="BF84" s="35"/>
       <c r="BG84" s="35"/>
-      <c r="BH84" s="89"/>
-      <c r="BI84" s="89"/>
-      <c r="BJ84" s="89"/>
+      <c r="BH84" s="70"/>
+      <c r="BI84" s="70"/>
+      <c r="BJ84" s="70"/>
       <c r="BK84" s="44"/>
       <c r="BL84" s="44"/>
       <c r="BM84" s="44"/>
@@ -11376,15 +11394,15 @@
       <c r="AMD84"/>
     </row>
     <row r="85" spans="1:1018" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="75"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="89"/>
+      <c r="I85" s="85"/>
       <c r="J85" s="45"/>
       <c r="K85" s="45"/>
       <c r="L85" s="45"/>
@@ -11398,8 +11416,8 @@
       <c r="T85" s="45"/>
       <c r="U85" s="45"/>
       <c r="V85" s="45"/>
-      <c r="W85" s="74"/>
-      <c r="X85" s="75"/>
+      <c r="W85" s="84"/>
+      <c r="X85" s="85"/>
       <c r="Y85" s="45"/>
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
@@ -11407,8 +11425,8 @@
       <c r="AC85" s="46"/>
       <c r="AD85" s="45"/>
       <c r="AE85" s="45"/>
-      <c r="AF85" s="75"/>
-      <c r="AG85" s="75"/>
+      <c r="AF85" s="85"/>
+      <c r="AG85" s="85"/>
       <c r="AH85" s="45"/>
       <c r="AI85" s="45"/>
       <c r="AJ85" s="45"/>
@@ -11416,7 +11434,7 @@
       <c r="AL85" s="45"/>
       <c r="AM85" s="45"/>
       <c r="AN85" s="45"/>
-      <c r="AO85" s="75"/>
+      <c r="AO85" s="85"/>
       <c r="AP85" s="45"/>
       <c r="AQ85" s="45"/>
       <c r="AR85" s="45"/>
@@ -11424,18 +11442,18 @@
       <c r="AT85" s="45"/>
       <c r="AV85" s="45"/>
       <c r="AW85" s="45"/>
-      <c r="AY85" s="75"/>
-      <c r="AZ85" s="75"/>
-      <c r="BA85" s="75"/>
-      <c r="BB85" s="75"/>
-      <c r="BC85" s="69"/>
+      <c r="AY85" s="85"/>
+      <c r="AZ85" s="85"/>
+      <c r="BA85" s="85"/>
+      <c r="BB85" s="85"/>
+      <c r="BC85" s="81"/>
       <c r="BD85" s="45"/>
       <c r="BE85" s="45"/>
       <c r="BF85" s="45"/>
       <c r="BG85" s="45"/>
-      <c r="BH85" s="90"/>
-      <c r="BI85" s="91"/>
-      <c r="BJ85" s="92"/>
+      <c r="BH85" s="72"/>
+      <c r="BI85" s="74"/>
+      <c r="BJ85" s="73"/>
       <c r="BK85" s="49"/>
       <c r="BL85" s="49"/>
       <c r="BM85" s="49"/>
@@ -11492,15 +11510,15 @@
       <c r="AMD85" s="50"/>
     </row>
     <row r="86" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="75"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="75"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="85"/>
       <c r="M86" s="45"/>
       <c r="N86" s="52"/>
       <c r="O86" s="45"/>
@@ -11511,37 +11529,37 @@
       <c r="T86" s="45"/>
       <c r="U86" s="45"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="74"/>
-      <c r="X86" s="75"/>
+      <c r="W86" s="84"/>
+      <c r="X86" s="85"/>
       <c r="Y86" s="54"/>
       <c r="Z86" s="54"/>
       <c r="AA86" s="45"/>
       <c r="AB86" s="45"/>
       <c r="AC86" s="53"/>
       <c r="AE86" s="45"/>
-      <c r="AF86" s="75"/>
-      <c r="AG86" s="75"/>
+      <c r="AF86" s="85"/>
+      <c r="AG86" s="85"/>
       <c r="AH86" s="54"/>
       <c r="AK86" s="45"/>
       <c r="AN86" s="45"/>
-      <c r="AO86" s="75"/>
+      <c r="AO86" s="85"/>
       <c r="AP86" s="45"/>
       <c r="AQ86" s="45"/>
       <c r="AS86" s="45"/>
       <c r="AT86" s="45"/>
       <c r="AV86" s="54"/>
-      <c r="AY86" s="75"/>
-      <c r="AZ86" s="75"/>
-      <c r="BA86" s="75"/>
-      <c r="BB86" s="75"/>
-      <c r="BC86" s="69"/>
+      <c r="AY86" s="85"/>
+      <c r="AZ86" s="85"/>
+      <c r="BA86" s="85"/>
+      <c r="BB86" s="85"/>
+      <c r="BC86" s="81"/>
       <c r="BD86" s="45"/>
       <c r="BE86" s="45"/>
       <c r="BF86" s="45"/>
       <c r="BG86" s="45"/>
-      <c r="BH86" s="92"/>
-      <c r="BI86" s="92"/>
-      <c r="BJ86" s="92"/>
+      <c r="BH86" s="73"/>
+      <c r="BI86" s="73"/>
+      <c r="BJ86" s="73"/>
       <c r="BK86" s="55"/>
       <c r="BL86" s="55"/>
       <c r="BM86" s="55"/>
@@ -11598,15 +11616,15 @@
       <c r="AMD86" s="50"/>
     </row>
     <row r="87" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="75"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="75"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="89"/>
+      <c r="I87" s="85"/>
       <c r="M87" s="45"/>
       <c r="O87" s="45"/>
       <c r="P87" s="45"/>
@@ -11615,35 +11633,35 @@
       <c r="S87" s="53"/>
       <c r="T87" s="45"/>
       <c r="U87" s="45"/>
-      <c r="W87" s="74"/>
-      <c r="X87" s="75"/>
+      <c r="W87" s="84"/>
+      <c r="X87" s="85"/>
       <c r="Y87" s="54"/>
       <c r="Z87" s="54"/>
       <c r="AA87" s="45"/>
       <c r="AB87" s="45"/>
       <c r="AC87" s="53"/>
       <c r="AE87" s="45"/>
-      <c r="AF87" s="75"/>
-      <c r="AG87" s="75"/>
+      <c r="AF87" s="85"/>
+      <c r="AG87" s="85"/>
       <c r="AK87" s="45"/>
       <c r="AN87" s="45"/>
-      <c r="AO87" s="75"/>
+      <c r="AO87" s="85"/>
       <c r="AP87" s="45"/>
       <c r="AQ87" s="45"/>
       <c r="AS87" s="45"/>
       <c r="AT87" s="45"/>
-      <c r="AY87" s="75"/>
-      <c r="AZ87" s="75"/>
-      <c r="BA87" s="75"/>
-      <c r="BB87" s="75"/>
-      <c r="BC87" s="69"/>
+      <c r="AY87" s="85"/>
+      <c r="AZ87" s="85"/>
+      <c r="BA87" s="85"/>
+      <c r="BB87" s="85"/>
+      <c r="BC87" s="81"/>
       <c r="BD87" s="45"/>
       <c r="BE87" s="45"/>
       <c r="BF87" s="45"/>
       <c r="BG87" s="45"/>
-      <c r="BH87" s="92"/>
-      <c r="BI87" s="92"/>
-      <c r="BJ87" s="92"/>
+      <c r="BH87" s="73"/>
+      <c r="BI87" s="73"/>
+      <c r="BJ87" s="73"/>
       <c r="BK87" s="55"/>
       <c r="BL87" s="55"/>
       <c r="BM87" s="55"/>
@@ -11700,15 +11718,15 @@
       <c r="AMD87" s="50"/>
     </row>
     <row r="88" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="75"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="75"/>
+      <c r="A88" s="85"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="85"/>
       <c r="M88" s="45"/>
       <c r="O88" s="45"/>
       <c r="P88" s="45"/>
@@ -11717,33 +11735,33 @@
       <c r="S88" s="53"/>
       <c r="T88" s="45"/>
       <c r="U88" s="45"/>
-      <c r="W88" s="74"/>
-      <c r="X88" s="75"/>
+      <c r="W88" s="84"/>
+      <c r="X88" s="85"/>
       <c r="AA88" s="45"/>
       <c r="AB88" s="45"/>
       <c r="AC88" s="53"/>
       <c r="AE88" s="45"/>
-      <c r="AF88" s="75"/>
-      <c r="AG88" s="75"/>
+      <c r="AF88" s="85"/>
+      <c r="AG88" s="85"/>
       <c r="AK88" s="45"/>
       <c r="AN88" s="45"/>
-      <c r="AO88" s="75"/>
+      <c r="AO88" s="85"/>
       <c r="AP88" s="45"/>
       <c r="AQ88" s="45"/>
       <c r="AS88" s="45"/>
       <c r="AT88" s="45"/>
-      <c r="AY88" s="75"/>
-      <c r="AZ88" s="75"/>
-      <c r="BA88" s="75"/>
-      <c r="BB88" s="75"/>
-      <c r="BC88" s="69"/>
+      <c r="AY88" s="85"/>
+      <c r="AZ88" s="85"/>
+      <c r="BA88" s="85"/>
+      <c r="BB88" s="85"/>
+      <c r="BC88" s="81"/>
       <c r="BD88" s="45"/>
       <c r="BE88" s="45"/>
       <c r="BF88" s="45"/>
       <c r="BG88" s="45"/>
-      <c r="BH88" s="92"/>
-      <c r="BI88" s="92"/>
-      <c r="BJ88" s="92"/>
+      <c r="BH88" s="73"/>
+      <c r="BI88" s="73"/>
+      <c r="BJ88" s="73"/>
       <c r="BK88" s="55"/>
       <c r="BL88" s="55"/>
       <c r="BM88" s="55"/>
@@ -11800,15 +11818,15 @@
       <c r="AMD88" s="50"/>
     </row>
     <row r="89" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="75"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="75"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="85"/>
       <c r="M89" s="45"/>
       <c r="O89" s="45"/>
       <c r="P89" s="45"/>
@@ -11817,33 +11835,33 @@
       <c r="S89" s="53"/>
       <c r="T89" s="45"/>
       <c r="U89" s="45"/>
-      <c r="W89" s="74"/>
-      <c r="X89" s="75"/>
+      <c r="W89" s="84"/>
+      <c r="X89" s="85"/>
       <c r="AA89" s="45"/>
       <c r="AB89" s="45"/>
       <c r="AC89" s="53"/>
       <c r="AE89" s="45"/>
-      <c r="AF89" s="75"/>
-      <c r="AG89" s="75"/>
+      <c r="AF89" s="85"/>
+      <c r="AG89" s="85"/>
       <c r="AK89" s="45"/>
       <c r="AN89" s="45"/>
-      <c r="AO89" s="75"/>
+      <c r="AO89" s="85"/>
       <c r="AP89" s="45"/>
       <c r="AQ89" s="45"/>
       <c r="AS89" s="45"/>
       <c r="AT89" s="45"/>
-      <c r="AY89" s="75"/>
-      <c r="AZ89" s="75"/>
-      <c r="BA89" s="75"/>
-      <c r="BB89" s="75"/>
-      <c r="BC89" s="69"/>
+      <c r="AY89" s="85"/>
+      <c r="AZ89" s="85"/>
+      <c r="BA89" s="85"/>
+      <c r="BB89" s="85"/>
+      <c r="BC89" s="81"/>
       <c r="BD89" s="45"/>
       <c r="BE89" s="45"/>
       <c r="BF89" s="45"/>
       <c r="BG89" s="45"/>
-      <c r="BH89" s="92"/>
-      <c r="BI89" s="92"/>
-      <c r="BJ89" s="92"/>
+      <c r="BH89" s="73"/>
+      <c r="BI89" s="73"/>
+      <c r="BJ89" s="73"/>
       <c r="BK89" s="55"/>
       <c r="BL89" s="55"/>
       <c r="BM89" s="55"/>
@@ -11900,15 +11918,15 @@
       <c r="AMD89" s="50"/>
     </row>
     <row r="90" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="75"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="80"/>
-      <c r="I90" s="75"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="85"/>
       <c r="M90" s="45"/>
       <c r="O90" s="45"/>
       <c r="P90" s="45"/>
@@ -11917,33 +11935,33 @@
       <c r="S90" s="53"/>
       <c r="T90" s="45"/>
       <c r="U90" s="45"/>
-      <c r="W90" s="74"/>
-      <c r="X90" s="75"/>
+      <c r="W90" s="84"/>
+      <c r="X90" s="85"/>
       <c r="AA90" s="45"/>
       <c r="AB90" s="45"/>
       <c r="AC90" s="53"/>
       <c r="AE90" s="45"/>
-      <c r="AF90" s="75"/>
-      <c r="AG90" s="75"/>
+      <c r="AF90" s="85"/>
+      <c r="AG90" s="85"/>
       <c r="AK90" s="45"/>
       <c r="AN90" s="45"/>
-      <c r="AO90" s="75"/>
+      <c r="AO90" s="85"/>
       <c r="AP90" s="45"/>
       <c r="AQ90" s="45"/>
       <c r="AS90" s="45"/>
       <c r="AT90" s="45"/>
-      <c r="AY90" s="75"/>
-      <c r="AZ90" s="75"/>
-      <c r="BA90" s="75"/>
-      <c r="BB90" s="75"/>
-      <c r="BC90" s="69"/>
+      <c r="AY90" s="85"/>
+      <c r="AZ90" s="85"/>
+      <c r="BA90" s="85"/>
+      <c r="BB90" s="85"/>
+      <c r="BC90" s="81"/>
       <c r="BD90" s="45"/>
       <c r="BE90" s="45"/>
       <c r="BF90" s="45"/>
       <c r="BG90" s="45"/>
-      <c r="BH90" s="92"/>
-      <c r="BI90" s="92"/>
-      <c r="BJ90" s="92"/>
+      <c r="BH90" s="73"/>
+      <c r="BI90" s="73"/>
+      <c r="BJ90" s="73"/>
       <c r="BK90" s="55"/>
       <c r="BL90" s="55"/>
       <c r="BM90" s="55"/>
@@ -12000,15 +12018,15 @@
       <c r="AMD90" s="50"/>
     </row>
     <row r="91" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="75"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="80"/>
-      <c r="I91" s="75"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="85"/>
       <c r="M91" s="45"/>
       <c r="O91" s="45"/>
       <c r="P91" s="45"/>
@@ -12017,33 +12035,33 @@
       <c r="S91" s="53"/>
       <c r="T91" s="45"/>
       <c r="U91" s="45"/>
-      <c r="W91" s="74"/>
-      <c r="X91" s="75"/>
+      <c r="W91" s="84"/>
+      <c r="X91" s="85"/>
       <c r="AA91" s="45"/>
       <c r="AB91" s="45"/>
       <c r="AC91" s="53"/>
       <c r="AE91" s="45"/>
-      <c r="AF91" s="75"/>
-      <c r="AG91" s="75"/>
+      <c r="AF91" s="85"/>
+      <c r="AG91" s="85"/>
       <c r="AK91" s="45"/>
       <c r="AN91" s="45"/>
-      <c r="AO91" s="75"/>
+      <c r="AO91" s="85"/>
       <c r="AP91" s="45"/>
       <c r="AQ91" s="45"/>
       <c r="AS91" s="45"/>
       <c r="AT91" s="45"/>
-      <c r="AY91" s="75"/>
-      <c r="AZ91" s="75"/>
-      <c r="BA91" s="75"/>
-      <c r="BB91" s="75"/>
-      <c r="BC91" s="69"/>
+      <c r="AY91" s="85"/>
+      <c r="AZ91" s="85"/>
+      <c r="BA91" s="85"/>
+      <c r="BB91" s="85"/>
+      <c r="BC91" s="81"/>
       <c r="BD91" s="45"/>
       <c r="BE91" s="45"/>
       <c r="BF91" s="45"/>
       <c r="BG91" s="45"/>
-      <c r="BH91" s="92"/>
-      <c r="BI91" s="92"/>
-      <c r="BJ91" s="92"/>
+      <c r="BH91" s="73"/>
+      <c r="BI91" s="73"/>
+      <c r="BJ91" s="73"/>
       <c r="BK91" s="55"/>
       <c r="BL91" s="55"/>
       <c r="BM91" s="55"/>
@@ -12100,15 +12118,15 @@
       <c r="AMD91" s="50"/>
     </row>
     <row r="92" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="75"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="75"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="89"/>
+      <c r="I92" s="85"/>
       <c r="M92" s="45"/>
       <c r="O92" s="45"/>
       <c r="P92" s="45"/>
@@ -12117,33 +12135,33 @@
       <c r="S92" s="53"/>
       <c r="T92" s="45"/>
       <c r="U92" s="45"/>
-      <c r="W92" s="74"/>
-      <c r="X92" s="75"/>
+      <c r="W92" s="84"/>
+      <c r="X92" s="85"/>
       <c r="AA92" s="45"/>
       <c r="AB92" s="45"/>
       <c r="AC92" s="53"/>
       <c r="AE92" s="45"/>
-      <c r="AF92" s="75"/>
-      <c r="AG92" s="75"/>
+      <c r="AF92" s="85"/>
+      <c r="AG92" s="85"/>
       <c r="AK92" s="45"/>
       <c r="AN92" s="45"/>
-      <c r="AO92" s="75"/>
+      <c r="AO92" s="85"/>
       <c r="AP92" s="45"/>
       <c r="AQ92" s="45"/>
       <c r="AS92" s="45"/>
       <c r="AT92" s="45"/>
-      <c r="AY92" s="75"/>
-      <c r="AZ92" s="75"/>
-      <c r="BA92" s="75"/>
-      <c r="BB92" s="75"/>
-      <c r="BC92" s="69"/>
+      <c r="AY92" s="85"/>
+      <c r="AZ92" s="85"/>
+      <c r="BA92" s="85"/>
+      <c r="BB92" s="85"/>
+      <c r="BC92" s="81"/>
       <c r="BD92" s="45"/>
       <c r="BE92" s="45"/>
       <c r="BF92" s="45"/>
       <c r="BG92" s="45"/>
-      <c r="BH92" s="92"/>
-      <c r="BI92" s="92"/>
-      <c r="BJ92" s="92"/>
+      <c r="BH92" s="73"/>
+      <c r="BI92" s="73"/>
+      <c r="BJ92" s="73"/>
       <c r="BK92" s="55"/>
       <c r="BL92" s="55"/>
       <c r="BM92" s="55"/>
@@ -12200,15 +12218,15 @@
       <c r="AMD92" s="50"/>
     </row>
     <row r="93" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="75"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="75"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="89"/>
+      <c r="I93" s="85"/>
       <c r="M93" s="45"/>
       <c r="O93" s="45"/>
       <c r="P93" s="45"/>
@@ -12217,33 +12235,33 @@
       <c r="S93" s="53"/>
       <c r="T93" s="45"/>
       <c r="U93" s="45"/>
-      <c r="W93" s="74"/>
-      <c r="X93" s="75"/>
+      <c r="W93" s="84"/>
+      <c r="X93" s="85"/>
       <c r="AA93" s="45"/>
       <c r="AB93" s="45"/>
       <c r="AC93" s="53"/>
       <c r="AE93" s="45"/>
-      <c r="AF93" s="75"/>
-      <c r="AG93" s="75"/>
+      <c r="AF93" s="85"/>
+      <c r="AG93" s="85"/>
       <c r="AK93" s="45"/>
       <c r="AN93" s="45"/>
-      <c r="AO93" s="75"/>
+      <c r="AO93" s="85"/>
       <c r="AP93" s="45"/>
       <c r="AQ93" s="45"/>
       <c r="AS93" s="45"/>
       <c r="AT93" s="45"/>
-      <c r="AY93" s="75"/>
-      <c r="AZ93" s="75"/>
-      <c r="BA93" s="75"/>
-      <c r="BB93" s="75"/>
-      <c r="BC93" s="69"/>
+      <c r="AY93" s="85"/>
+      <c r="AZ93" s="85"/>
+      <c r="BA93" s="85"/>
+      <c r="BB93" s="85"/>
+      <c r="BC93" s="81"/>
       <c r="BD93" s="45"/>
       <c r="BE93" s="45"/>
       <c r="BF93" s="45"/>
       <c r="BG93" s="45"/>
-      <c r="BH93" s="92"/>
-      <c r="BI93" s="92"/>
-      <c r="BJ93" s="92"/>
+      <c r="BH93" s="73"/>
+      <c r="BI93" s="73"/>
+      <c r="BJ93" s="73"/>
       <c r="BK93" s="55"/>
       <c r="BL93" s="55"/>
       <c r="BM93" s="55"/>
@@ -12300,15 +12318,15 @@
       <c r="AMD93" s="50"/>
     </row>
     <row r="94" spans="1:1018" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="75"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="80"/>
-      <c r="I94" s="75"/>
+      <c r="A94" s="85"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="89"/>
+      <c r="I94" s="85"/>
       <c r="M94" s="45"/>
       <c r="O94" s="45"/>
       <c r="P94" s="45"/>
@@ -12316,32 +12334,32 @@
       <c r="S94" s="53"/>
       <c r="T94" s="45"/>
       <c r="U94" s="45"/>
-      <c r="W94" s="74"/>
-      <c r="X94" s="75"/>
+      <c r="W94" s="84"/>
+      <c r="X94" s="85"/>
       <c r="AA94" s="45"/>
       <c r="AB94" s="45"/>
       <c r="AC94" s="53"/>
       <c r="AE94" s="45"/>
-      <c r="AF94" s="75"/>
-      <c r="AG94" s="75"/>
+      <c r="AF94" s="85"/>
+      <c r="AG94" s="85"/>
       <c r="AK94" s="45"/>
       <c r="AN94" s="45"/>
-      <c r="AO94" s="75"/>
+      <c r="AO94" s="85"/>
       <c r="AP94" s="45"/>
       <c r="AS94" s="45"/>
       <c r="AT94" s="45"/>
-      <c r="AY94" s="75"/>
-      <c r="AZ94" s="75"/>
-      <c r="BA94" s="75"/>
-      <c r="BB94" s="75"/>
-      <c r="BC94" s="69"/>
+      <c r="AY94" s="85"/>
+      <c r="AZ94" s="85"/>
+      <c r="BA94" s="85"/>
+      <c r="BB94" s="85"/>
+      <c r="BC94" s="81"/>
       <c r="BD94" s="45"/>
       <c r="BE94" s="45"/>
       <c r="BF94" s="45"/>
       <c r="BG94" s="45"/>
-      <c r="BH94" s="92"/>
-      <c r="BI94" s="92"/>
-      <c r="BJ94" s="92"/>
+      <c r="BH94" s="73"/>
+      <c r="BI94" s="73"/>
+      <c r="BJ94" s="73"/>
       <c r="BK94" s="55"/>
       <c r="BL94" s="55"/>
       <c r="BM94" s="55"/>
@@ -12398,15 +12416,15 @@
       <c r="AMD94" s="50"/>
     </row>
     <row r="95" spans="1:1018" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="81"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="81"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="82"/>
-      <c r="I95" s="81"/>
+      <c r="I95" s="75"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="35"/>
@@ -12421,7 +12439,7 @@
       <c r="U95" s="35"/>
       <c r="V95" s="35"/>
       <c r="W95" s="83"/>
-      <c r="X95" s="81"/>
+      <c r="X95" s="75"/>
       <c r="Y95" s="35"/>
       <c r="Z95" s="35"/>
       <c r="AA95" s="35"/>
@@ -12429,8 +12447,8 @@
       <c r="AC95" s="36"/>
       <c r="AD95" s="35"/>
       <c r="AE95" s="35"/>
-      <c r="AF95" s="81"/>
-      <c r="AG95" s="81"/>
+      <c r="AF95" s="75"/>
+      <c r="AG95" s="75"/>
       <c r="AH95" s="35"/>
       <c r="AI95" s="35"/>
       <c r="AJ95" s="35"/>
@@ -12438,7 +12456,7 @@
       <c r="AL95" s="35"/>
       <c r="AM95" s="35"/>
       <c r="AN95" s="35"/>
-      <c r="AO95" s="81"/>
+      <c r="AO95" s="75"/>
       <c r="AP95" s="35"/>
       <c r="AQ95" s="35"/>
       <c r="AR95" s="35"/>
@@ -12446,18 +12464,18 @@
       <c r="AT95" s="35"/>
       <c r="AV95" s="35"/>
       <c r="AW95" s="35"/>
-      <c r="AY95" s="81"/>
-      <c r="AZ95" s="81"/>
-      <c r="BA95" s="81"/>
-      <c r="BB95" s="81"/>
-      <c r="BC95" s="72"/>
+      <c r="AY95" s="75"/>
+      <c r="AZ95" s="75"/>
+      <c r="BA95" s="75"/>
+      <c r="BB95" s="75"/>
+      <c r="BC95" s="76"/>
       <c r="BD95" s="35"/>
       <c r="BE95" s="35"/>
       <c r="BF95" s="35"/>
       <c r="BG95" s="35"/>
-      <c r="BH95" s="68"/>
-      <c r="BI95" s="73"/>
-      <c r="BJ95" s="89"/>
+      <c r="BH95" s="69"/>
+      <c r="BI95" s="71"/>
+      <c r="BJ95" s="70"/>
       <c r="BK95" s="39"/>
       <c r="BL95" s="39"/>
       <c r="BM95" s="39"/>
@@ -12514,15 +12532,15 @@
       <c r="AMD95"/>
     </row>
     <row r="96" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="81"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="81"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="75"/>
       <c r="H96" s="82"/>
-      <c r="I96" s="81"/>
+      <c r="I96" s="75"/>
       <c r="M96" s="35"/>
       <c r="N96" s="41"/>
       <c r="O96" s="35"/>
@@ -12534,36 +12552,36 @@
       <c r="U96" s="35"/>
       <c r="V96" s="43"/>
       <c r="W96" s="83"/>
-      <c r="X96" s="81"/>
+      <c r="X96" s="75"/>
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
       <c r="AA96" s="35"/>
       <c r="AB96" s="35"/>
       <c r="AC96" s="42"/>
       <c r="AE96" s="35"/>
-      <c r="AF96" s="81"/>
-      <c r="AG96" s="81"/>
+      <c r="AF96" s="75"/>
+      <c r="AG96" s="75"/>
       <c r="AH96" s="43"/>
       <c r="AK96" s="35"/>
       <c r="AN96" s="35"/>
-      <c r="AO96" s="81"/>
+      <c r="AO96" s="75"/>
       <c r="AP96" s="35"/>
       <c r="AQ96" s="35"/>
       <c r="AS96" s="35"/>
       <c r="AT96" s="35"/>
       <c r="AV96" s="43"/>
-      <c r="AY96" s="81"/>
-      <c r="AZ96" s="81"/>
-      <c r="BA96" s="81"/>
-      <c r="BB96" s="81"/>
-      <c r="BC96" s="72"/>
+      <c r="AY96" s="75"/>
+      <c r="AZ96" s="75"/>
+      <c r="BA96" s="75"/>
+      <c r="BB96" s="75"/>
+      <c r="BC96" s="76"/>
       <c r="BD96" s="35"/>
       <c r="BE96" s="35"/>
       <c r="BF96" s="35"/>
       <c r="BG96" s="35"/>
-      <c r="BH96" s="89"/>
-      <c r="BI96" s="89"/>
-      <c r="BJ96" s="89"/>
+      <c r="BH96" s="70"/>
+      <c r="BI96" s="70"/>
+      <c r="BJ96" s="70"/>
       <c r="BK96" s="44"/>
       <c r="BL96" s="44"/>
       <c r="BM96" s="44"/>
@@ -12620,15 +12638,15 @@
       <c r="AMD96"/>
     </row>
     <row r="97" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="81"/>
-      <c r="B97" s="81"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="81"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="75"/>
       <c r="H97" s="82"/>
-      <c r="I97" s="81"/>
+      <c r="I97" s="75"/>
       <c r="M97" s="35"/>
       <c r="O97" s="35"/>
       <c r="P97" s="35"/>
@@ -12638,34 +12656,34 @@
       <c r="T97" s="35"/>
       <c r="U97" s="35"/>
       <c r="W97" s="83"/>
-      <c r="X97" s="81"/>
+      <c r="X97" s="75"/>
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
       <c r="AA97" s="35"/>
       <c r="AB97" s="35"/>
       <c r="AC97" s="42"/>
       <c r="AE97" s="35"/>
-      <c r="AF97" s="81"/>
-      <c r="AG97" s="81"/>
+      <c r="AF97" s="75"/>
+      <c r="AG97" s="75"/>
       <c r="AK97" s="35"/>
       <c r="AN97" s="35"/>
-      <c r="AO97" s="81"/>
+      <c r="AO97" s="75"/>
       <c r="AP97" s="35"/>
       <c r="AQ97" s="35"/>
       <c r="AS97" s="35"/>
       <c r="AT97" s="35"/>
-      <c r="AY97" s="81"/>
-      <c r="AZ97" s="81"/>
-      <c r="BA97" s="81"/>
-      <c r="BB97" s="81"/>
-      <c r="BC97" s="72"/>
+      <c r="AY97" s="75"/>
+      <c r="AZ97" s="75"/>
+      <c r="BA97" s="75"/>
+      <c r="BB97" s="75"/>
+      <c r="BC97" s="76"/>
       <c r="BD97" s="35"/>
       <c r="BE97" s="35"/>
       <c r="BF97" s="35"/>
       <c r="BG97" s="35"/>
-      <c r="BH97" s="89"/>
-      <c r="BI97" s="89"/>
-      <c r="BJ97" s="89"/>
+      <c r="BH97" s="70"/>
+      <c r="BI97" s="70"/>
+      <c r="BJ97" s="70"/>
       <c r="BK97" s="44"/>
       <c r="BL97" s="44"/>
       <c r="BM97" s="44"/>
@@ -12722,15 +12740,15 @@
       <c r="AMD97"/>
     </row>
     <row r="98" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="81"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="75"/>
       <c r="H98" s="82"/>
-      <c r="I98" s="81"/>
+      <c r="I98" s="75"/>
       <c r="M98" s="35"/>
       <c r="O98" s="35"/>
       <c r="P98" s="35"/>
@@ -12740,32 +12758,32 @@
       <c r="T98" s="35"/>
       <c r="U98" s="35"/>
       <c r="W98" s="83"/>
-      <c r="X98" s="81"/>
+      <c r="X98" s="75"/>
       <c r="AA98" s="35"/>
       <c r="AB98" s="35"/>
       <c r="AC98" s="42"/>
       <c r="AE98" s="35"/>
-      <c r="AF98" s="81"/>
-      <c r="AG98" s="81"/>
+      <c r="AF98" s="75"/>
+      <c r="AG98" s="75"/>
       <c r="AK98" s="35"/>
       <c r="AN98" s="35"/>
-      <c r="AO98" s="81"/>
+      <c r="AO98" s="75"/>
       <c r="AP98" s="35"/>
       <c r="AQ98" s="35"/>
       <c r="AS98" s="35"/>
       <c r="AT98" s="35"/>
-      <c r="AY98" s="81"/>
-      <c r="AZ98" s="81"/>
-      <c r="BA98" s="81"/>
-      <c r="BB98" s="81"/>
-      <c r="BC98" s="72"/>
+      <c r="AY98" s="75"/>
+      <c r="AZ98" s="75"/>
+      <c r="BA98" s="75"/>
+      <c r="BB98" s="75"/>
+      <c r="BC98" s="76"/>
       <c r="BD98" s="35"/>
       <c r="BE98" s="35"/>
       <c r="BF98" s="35"/>
       <c r="BG98" s="35"/>
-      <c r="BH98" s="89"/>
-      <c r="BI98" s="89"/>
-      <c r="BJ98" s="89"/>
+      <c r="BH98" s="70"/>
+      <c r="BI98" s="70"/>
+      <c r="BJ98" s="70"/>
       <c r="BK98" s="44"/>
       <c r="BL98" s="44"/>
       <c r="BM98" s="44"/>
@@ -12822,15 +12840,15 @@
       <c r="AMD98"/>
     </row>
     <row r="99" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="81"/>
-      <c r="B99" s="81"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="81"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="81"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="75"/>
       <c r="H99" s="82"/>
-      <c r="I99" s="81"/>
+      <c r="I99" s="75"/>
       <c r="M99" s="35"/>
       <c r="O99" s="35"/>
       <c r="P99" s="35"/>
@@ -12840,32 +12858,32 @@
       <c r="T99" s="35"/>
       <c r="U99" s="35"/>
       <c r="W99" s="83"/>
-      <c r="X99" s="81"/>
+      <c r="X99" s="75"/>
       <c r="AA99" s="35"/>
       <c r="AB99" s="35"/>
       <c r="AC99" s="42"/>
       <c r="AE99" s="35"/>
-      <c r="AF99" s="81"/>
-      <c r="AG99" s="81"/>
+      <c r="AF99" s="75"/>
+      <c r="AG99" s="75"/>
       <c r="AK99" s="35"/>
       <c r="AN99" s="35"/>
-      <c r="AO99" s="81"/>
+      <c r="AO99" s="75"/>
       <c r="AP99" s="35"/>
       <c r="AQ99" s="35"/>
       <c r="AS99" s="35"/>
       <c r="AT99" s="35"/>
-      <c r="AY99" s="81"/>
-      <c r="AZ99" s="81"/>
-      <c r="BA99" s="81"/>
-      <c r="BB99" s="81"/>
-      <c r="BC99" s="72"/>
+      <c r="AY99" s="75"/>
+      <c r="AZ99" s="75"/>
+      <c r="BA99" s="75"/>
+      <c r="BB99" s="75"/>
+      <c r="BC99" s="76"/>
       <c r="BD99" s="35"/>
       <c r="BE99" s="35"/>
       <c r="BF99" s="35"/>
       <c r="BG99" s="35"/>
-      <c r="BH99" s="89"/>
-      <c r="BI99" s="89"/>
-      <c r="BJ99" s="89"/>
+      <c r="BH99" s="70"/>
+      <c r="BI99" s="70"/>
+      <c r="BJ99" s="70"/>
       <c r="BK99" s="44"/>
       <c r="BL99" s="44"/>
       <c r="BM99" s="44"/>
@@ -12922,15 +12940,15 @@
       <c r="AMD99"/>
     </row>
     <row r="100" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="81"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="81"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="75"/>
       <c r="H100" s="82"/>
-      <c r="I100" s="81"/>
+      <c r="I100" s="75"/>
       <c r="M100" s="35"/>
       <c r="O100" s="35"/>
       <c r="P100" s="35"/>
@@ -12940,32 +12958,32 @@
       <c r="T100" s="35"/>
       <c r="U100" s="35"/>
       <c r="W100" s="83"/>
-      <c r="X100" s="81"/>
+      <c r="X100" s="75"/>
       <c r="AA100" s="35"/>
       <c r="AB100" s="35"/>
       <c r="AC100" s="42"/>
       <c r="AE100" s="35"/>
-      <c r="AF100" s="81"/>
-      <c r="AG100" s="81"/>
+      <c r="AF100" s="75"/>
+      <c r="AG100" s="75"/>
       <c r="AK100" s="35"/>
       <c r="AN100" s="35"/>
-      <c r="AO100" s="81"/>
+      <c r="AO100" s="75"/>
       <c r="AP100" s="35"/>
       <c r="AQ100" s="35"/>
       <c r="AS100" s="35"/>
       <c r="AT100" s="35"/>
-      <c r="AY100" s="81"/>
-      <c r="AZ100" s="81"/>
-      <c r="BA100" s="81"/>
-      <c r="BB100" s="81"/>
-      <c r="BC100" s="72"/>
+      <c r="AY100" s="75"/>
+      <c r="AZ100" s="75"/>
+      <c r="BA100" s="75"/>
+      <c r="BB100" s="75"/>
+      <c r="BC100" s="76"/>
       <c r="BD100" s="35"/>
       <c r="BE100" s="35"/>
       <c r="BF100" s="35"/>
       <c r="BG100" s="35"/>
-      <c r="BH100" s="89"/>
-      <c r="BI100" s="89"/>
-      <c r="BJ100" s="89"/>
+      <c r="BH100" s="70"/>
+      <c r="BI100" s="70"/>
+      <c r="BJ100" s="70"/>
       <c r="BK100" s="44"/>
       <c r="BL100" s="44"/>
       <c r="BM100" s="44"/>
@@ -13022,15 +13040,15 @@
       <c r="AMD100"/>
     </row>
     <row r="101" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="81"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="81"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="82"/>
-      <c r="I101" s="81"/>
+      <c r="I101" s="75"/>
       <c r="M101" s="35"/>
       <c r="O101" s="35"/>
       <c r="P101" s="35"/>
@@ -13040,32 +13058,32 @@
       <c r="T101" s="35"/>
       <c r="U101" s="35"/>
       <c r="W101" s="83"/>
-      <c r="X101" s="81"/>
+      <c r="X101" s="75"/>
       <c r="AA101" s="35"/>
       <c r="AB101" s="35"/>
       <c r="AC101" s="42"/>
       <c r="AE101" s="35"/>
-      <c r="AF101" s="81"/>
-      <c r="AG101" s="81"/>
+      <c r="AF101" s="75"/>
+      <c r="AG101" s="75"/>
       <c r="AK101" s="35"/>
       <c r="AN101" s="35"/>
-      <c r="AO101" s="81"/>
+      <c r="AO101" s="75"/>
       <c r="AP101" s="35"/>
       <c r="AQ101" s="35"/>
       <c r="AS101" s="35"/>
       <c r="AT101" s="35"/>
-      <c r="AY101" s="81"/>
-      <c r="AZ101" s="81"/>
-      <c r="BA101" s="81"/>
-      <c r="BB101" s="81"/>
-      <c r="BC101" s="72"/>
+      <c r="AY101" s="75"/>
+      <c r="AZ101" s="75"/>
+      <c r="BA101" s="75"/>
+      <c r="BB101" s="75"/>
+      <c r="BC101" s="76"/>
       <c r="BD101" s="35"/>
       <c r="BE101" s="35"/>
       <c r="BF101" s="35"/>
       <c r="BG101" s="35"/>
-      <c r="BH101" s="89"/>
-      <c r="BI101" s="89"/>
-      <c r="BJ101" s="89"/>
+      <c r="BH101" s="70"/>
+      <c r="BI101" s="70"/>
+      <c r="BJ101" s="70"/>
       <c r="BK101" s="44"/>
       <c r="BL101" s="44"/>
       <c r="BM101" s="44"/>
@@ -13122,15 +13140,15 @@
       <c r="AMD101"/>
     </row>
     <row r="102" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="81"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="81"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="75"/>
       <c r="H102" s="82"/>
-      <c r="I102" s="81"/>
+      <c r="I102" s="75"/>
       <c r="M102" s="35"/>
       <c r="O102" s="35"/>
       <c r="P102" s="35"/>
@@ -13140,32 +13158,32 @@
       <c r="T102" s="35"/>
       <c r="U102" s="35"/>
       <c r="W102" s="83"/>
-      <c r="X102" s="81"/>
+      <c r="X102" s="75"/>
       <c r="AA102" s="35"/>
       <c r="AB102" s="35"/>
       <c r="AC102" s="42"/>
       <c r="AE102" s="35"/>
-      <c r="AF102" s="81"/>
-      <c r="AG102" s="81"/>
+      <c r="AF102" s="75"/>
+      <c r="AG102" s="75"/>
       <c r="AK102" s="35"/>
       <c r="AN102" s="35"/>
-      <c r="AO102" s="81"/>
+      <c r="AO102" s="75"/>
       <c r="AP102" s="35"/>
       <c r="AQ102" s="35"/>
       <c r="AS102" s="35"/>
       <c r="AT102" s="35"/>
-      <c r="AY102" s="81"/>
-      <c r="AZ102" s="81"/>
-      <c r="BA102" s="81"/>
-      <c r="BB102" s="81"/>
-      <c r="BC102" s="72"/>
+      <c r="AY102" s="75"/>
+      <c r="AZ102" s="75"/>
+      <c r="BA102" s="75"/>
+      <c r="BB102" s="75"/>
+      <c r="BC102" s="76"/>
       <c r="BD102" s="35"/>
       <c r="BE102" s="35"/>
       <c r="BF102" s="35"/>
       <c r="BG102" s="35"/>
-      <c r="BH102" s="89"/>
-      <c r="BI102" s="89"/>
-      <c r="BJ102" s="89"/>
+      <c r="BH102" s="70"/>
+      <c r="BI102" s="70"/>
+      <c r="BJ102" s="70"/>
       <c r="BK102" s="44"/>
       <c r="BL102" s="44"/>
       <c r="BM102" s="44"/>
@@ -13222,15 +13240,15 @@
       <c r="AMD102"/>
     </row>
     <row r="103" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="81"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="81"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="75"/>
       <c r="H103" s="82"/>
-      <c r="I103" s="81"/>
+      <c r="I103" s="75"/>
       <c r="M103" s="35"/>
       <c r="O103" s="35"/>
       <c r="P103" s="35"/>
@@ -13240,32 +13258,32 @@
       <c r="T103" s="35"/>
       <c r="U103" s="35"/>
       <c r="W103" s="83"/>
-      <c r="X103" s="81"/>
+      <c r="X103" s="75"/>
       <c r="AA103" s="35"/>
       <c r="AB103" s="35"/>
       <c r="AC103" s="42"/>
       <c r="AE103" s="35"/>
-      <c r="AF103" s="81"/>
-      <c r="AG103" s="81"/>
+      <c r="AF103" s="75"/>
+      <c r="AG103" s="75"/>
       <c r="AK103" s="35"/>
       <c r="AN103" s="35"/>
-      <c r="AO103" s="81"/>
+      <c r="AO103" s="75"/>
       <c r="AP103" s="35"/>
       <c r="AQ103" s="35"/>
       <c r="AS103" s="35"/>
       <c r="AT103" s="35"/>
-      <c r="AY103" s="81"/>
-      <c r="AZ103" s="81"/>
-      <c r="BA103" s="81"/>
-      <c r="BB103" s="81"/>
-      <c r="BC103" s="72"/>
+      <c r="AY103" s="75"/>
+      <c r="AZ103" s="75"/>
+      <c r="BA103" s="75"/>
+      <c r="BB103" s="75"/>
+      <c r="BC103" s="76"/>
       <c r="BD103" s="35"/>
       <c r="BE103" s="35"/>
       <c r="BF103" s="35"/>
       <c r="BG103" s="35"/>
-      <c r="BH103" s="89"/>
-      <c r="BI103" s="89"/>
-      <c r="BJ103" s="89"/>
+      <c r="BH103" s="70"/>
+      <c r="BI103" s="70"/>
+      <c r="BJ103" s="70"/>
       <c r="BK103" s="44"/>
       <c r="BL103" s="44"/>
       <c r="BM103" s="44"/>
@@ -13322,15 +13340,15 @@
       <c r="AMD103"/>
     </row>
     <row r="104" spans="1:1018" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="81"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="81"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="75"/>
       <c r="H104" s="82"/>
-      <c r="I104" s="81"/>
+      <c r="I104" s="75"/>
       <c r="M104" s="35"/>
       <c r="O104" s="35"/>
       <c r="P104" s="35"/>
@@ -13340,32 +13358,32 @@
       <c r="T104" s="35"/>
       <c r="U104" s="35"/>
       <c r="W104" s="83"/>
-      <c r="X104" s="81"/>
+      <c r="X104" s="75"/>
       <c r="AA104" s="35"/>
       <c r="AB104" s="35"/>
       <c r="AC104" s="42"/>
       <c r="AE104" s="35"/>
-      <c r="AF104" s="81"/>
-      <c r="AG104" s="81"/>
+      <c r="AF104" s="75"/>
+      <c r="AG104" s="75"/>
       <c r="AK104" s="35"/>
       <c r="AN104" s="35"/>
-      <c r="AO104" s="81"/>
+      <c r="AO104" s="75"/>
       <c r="AP104" s="35"/>
       <c r="AQ104" s="35"/>
       <c r="AS104" s="35"/>
       <c r="AT104" s="35"/>
-      <c r="AY104" s="81"/>
-      <c r="AZ104" s="81"/>
-      <c r="BA104" s="81"/>
-      <c r="BB104" s="81"/>
-      <c r="BC104" s="72"/>
+      <c r="AY104" s="75"/>
+      <c r="AZ104" s="75"/>
+      <c r="BA104" s="75"/>
+      <c r="BB104" s="75"/>
+      <c r="BC104" s="76"/>
       <c r="BD104" s="35"/>
       <c r="BE104" s="35"/>
       <c r="BF104" s="35"/>
       <c r="BG104" s="35"/>
-      <c r="BH104" s="89"/>
-      <c r="BI104" s="89"/>
-      <c r="BJ104" s="89"/>
+      <c r="BH104" s="70"/>
+      <c r="BI104" s="70"/>
+      <c r="BJ104" s="70"/>
       <c r="BK104" s="44"/>
       <c r="BL104" s="44"/>
       <c r="BM104" s="44"/>
@@ -14278,33 +14296,162 @@
     <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="BH75:BH84"/>
-    <mergeCell ref="BI75:BI84"/>
-    <mergeCell ref="BJ75:BJ84"/>
-    <mergeCell ref="BH85:BH94"/>
-    <mergeCell ref="BI85:BI94"/>
-    <mergeCell ref="BJ85:BJ94"/>
-    <mergeCell ref="BH95:BH104"/>
-    <mergeCell ref="BI95:BI104"/>
-    <mergeCell ref="BJ95:BJ104"/>
-    <mergeCell ref="BH45:BH54"/>
-    <mergeCell ref="BI45:BI54"/>
-    <mergeCell ref="BJ45:BJ54"/>
-    <mergeCell ref="BH55:BH64"/>
-    <mergeCell ref="BI55:BI64"/>
-    <mergeCell ref="BJ55:BJ64"/>
-    <mergeCell ref="BH65:BH74"/>
-    <mergeCell ref="BI65:BI74"/>
-    <mergeCell ref="BJ65:BJ74"/>
-    <mergeCell ref="BH15:BH24"/>
-    <mergeCell ref="BI15:BI24"/>
-    <mergeCell ref="BJ15:BJ24"/>
-    <mergeCell ref="BH25:BH34"/>
-    <mergeCell ref="BI25:BI34"/>
-    <mergeCell ref="BJ25:BJ34"/>
-    <mergeCell ref="BH35:BH44"/>
-    <mergeCell ref="BI35:BI44"/>
-    <mergeCell ref="BJ35:BJ44"/>
+    <mergeCell ref="BC25:BC34"/>
+    <mergeCell ref="AO15:AO24"/>
+    <mergeCell ref="AY15:AY24"/>
+    <mergeCell ref="AZ15:AZ24"/>
+    <mergeCell ref="BA15:BA24"/>
+    <mergeCell ref="BB15:BB24"/>
+    <mergeCell ref="BC15:BC24"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="E15:E24"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="W15:W24"/>
+    <mergeCell ref="X15:X24"/>
+    <mergeCell ref="AF15:AF24"/>
+    <mergeCell ref="AG15:AG24"/>
+    <mergeCell ref="W25:W34"/>
+    <mergeCell ref="X25:X34"/>
+    <mergeCell ref="AF25:AF34"/>
+    <mergeCell ref="AG25:AG34"/>
+    <mergeCell ref="AO25:AO34"/>
+    <mergeCell ref="AY25:AY34"/>
+    <mergeCell ref="AZ25:AZ34"/>
+    <mergeCell ref="BA25:BA34"/>
+    <mergeCell ref="BB25:BB34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="E25:E34"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="G25:G34"/>
+    <mergeCell ref="H25:H34"/>
+    <mergeCell ref="I25:I34"/>
+    <mergeCell ref="BC45:BC54"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="E35:E44"/>
+    <mergeCell ref="F35:F44"/>
+    <mergeCell ref="G35:G44"/>
+    <mergeCell ref="H35:H44"/>
+    <mergeCell ref="I35:I44"/>
+    <mergeCell ref="W35:W44"/>
+    <mergeCell ref="X35:X44"/>
+    <mergeCell ref="AF35:AF44"/>
+    <mergeCell ref="AG35:AG44"/>
+    <mergeCell ref="AO35:AO44"/>
+    <mergeCell ref="AY35:AY44"/>
+    <mergeCell ref="AZ35:AZ44"/>
+    <mergeCell ref="BA35:BA44"/>
+    <mergeCell ref="BB35:BB44"/>
+    <mergeCell ref="BC35:BC44"/>
+    <mergeCell ref="AZ55:AZ64"/>
+    <mergeCell ref="BA55:BA64"/>
+    <mergeCell ref="BB55:BB64"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="H45:H54"/>
+    <mergeCell ref="I45:I54"/>
+    <mergeCell ref="W45:W54"/>
+    <mergeCell ref="X45:X54"/>
+    <mergeCell ref="AF45:AF54"/>
+    <mergeCell ref="AG45:AG54"/>
+    <mergeCell ref="AO45:AO54"/>
+    <mergeCell ref="AY45:AY54"/>
+    <mergeCell ref="AZ45:AZ54"/>
+    <mergeCell ref="BA45:BA54"/>
+    <mergeCell ref="BB45:BB54"/>
+    <mergeCell ref="G55:G64"/>
+    <mergeCell ref="H55:H64"/>
+    <mergeCell ref="I55:I64"/>
+    <mergeCell ref="W55:W64"/>
+    <mergeCell ref="X55:X64"/>
+    <mergeCell ref="AF55:AF64"/>
+    <mergeCell ref="AG55:AG64"/>
+    <mergeCell ref="AO55:AO64"/>
+    <mergeCell ref="AY55:AY64"/>
+    <mergeCell ref="BC55:BC64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="E65:E74"/>
+    <mergeCell ref="F65:F74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="H65:H74"/>
+    <mergeCell ref="I65:I74"/>
+    <mergeCell ref="W65:W74"/>
+    <mergeCell ref="X65:X74"/>
+    <mergeCell ref="AF65:AF74"/>
+    <mergeCell ref="AG65:AG74"/>
+    <mergeCell ref="AO65:AO74"/>
+    <mergeCell ref="AY65:AY74"/>
+    <mergeCell ref="AZ65:AZ74"/>
+    <mergeCell ref="BA65:BA74"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="D55:D64"/>
+    <mergeCell ref="E55:E64"/>
+    <mergeCell ref="F55:F64"/>
+    <mergeCell ref="BA75:BA84"/>
+    <mergeCell ref="BB75:BB84"/>
+    <mergeCell ref="BC75:BC84"/>
+    <mergeCell ref="BB65:BB74"/>
+    <mergeCell ref="BC65:BC74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="C75:C84"/>
+    <mergeCell ref="D75:D84"/>
+    <mergeCell ref="E75:E84"/>
+    <mergeCell ref="F75:F84"/>
+    <mergeCell ref="G75:G84"/>
+    <mergeCell ref="H75:H84"/>
+    <mergeCell ref="I75:I84"/>
+    <mergeCell ref="W75:W84"/>
+    <mergeCell ref="X75:X84"/>
+    <mergeCell ref="AF75:AF84"/>
+    <mergeCell ref="AG75:AG84"/>
+    <mergeCell ref="AO75:AO84"/>
+    <mergeCell ref="AY75:AY84"/>
+    <mergeCell ref="AZ75:AZ84"/>
+    <mergeCell ref="AF85:AF94"/>
+    <mergeCell ref="AG85:AG94"/>
+    <mergeCell ref="AO85:AO94"/>
+    <mergeCell ref="AY85:AY94"/>
+    <mergeCell ref="AZ85:AZ94"/>
+    <mergeCell ref="BA85:BA94"/>
+    <mergeCell ref="BB85:BB94"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E85:E94"/>
+    <mergeCell ref="F85:F94"/>
+    <mergeCell ref="G85:G94"/>
+    <mergeCell ref="H85:H94"/>
+    <mergeCell ref="I85:I94"/>
     <mergeCell ref="BB95:BB104"/>
     <mergeCell ref="BC95:BC104"/>
     <mergeCell ref="A5:F5"/>
@@ -14329,162 +14476,33 @@
     <mergeCell ref="BA95:BA104"/>
     <mergeCell ref="W85:W94"/>
     <mergeCell ref="X85:X94"/>
-    <mergeCell ref="BB85:BB94"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="C85:C94"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E85:E94"/>
-    <mergeCell ref="F85:F94"/>
-    <mergeCell ref="G85:G94"/>
-    <mergeCell ref="H85:H94"/>
-    <mergeCell ref="I85:I94"/>
-    <mergeCell ref="AO75:AO84"/>
-    <mergeCell ref="AY75:AY84"/>
-    <mergeCell ref="AZ75:AZ84"/>
-    <mergeCell ref="AF85:AF94"/>
-    <mergeCell ref="AG85:AG94"/>
-    <mergeCell ref="AO85:AO94"/>
-    <mergeCell ref="AY85:AY94"/>
-    <mergeCell ref="AZ85:AZ94"/>
-    <mergeCell ref="BA85:BA94"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="D55:D64"/>
-    <mergeCell ref="E55:E64"/>
-    <mergeCell ref="F55:F64"/>
-    <mergeCell ref="BA75:BA84"/>
-    <mergeCell ref="BB75:BB84"/>
-    <mergeCell ref="BC75:BC84"/>
-    <mergeCell ref="BB65:BB74"/>
-    <mergeCell ref="BC65:BC74"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="B75:B84"/>
-    <mergeCell ref="C75:C84"/>
-    <mergeCell ref="D75:D84"/>
-    <mergeCell ref="E75:E84"/>
-    <mergeCell ref="F75:F84"/>
-    <mergeCell ref="G75:G84"/>
-    <mergeCell ref="H75:H84"/>
-    <mergeCell ref="I75:I84"/>
-    <mergeCell ref="W75:W84"/>
-    <mergeCell ref="X75:X84"/>
-    <mergeCell ref="AF75:AF84"/>
-    <mergeCell ref="AG75:AG84"/>
-    <mergeCell ref="W55:W64"/>
-    <mergeCell ref="X55:X64"/>
-    <mergeCell ref="AF55:AF64"/>
-    <mergeCell ref="AG55:AG64"/>
-    <mergeCell ref="AO55:AO64"/>
-    <mergeCell ref="AY55:AY64"/>
-    <mergeCell ref="BC55:BC64"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D65:D74"/>
-    <mergeCell ref="E65:E74"/>
-    <mergeCell ref="F65:F74"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="H65:H74"/>
-    <mergeCell ref="I65:I74"/>
-    <mergeCell ref="W65:W74"/>
-    <mergeCell ref="X65:X74"/>
-    <mergeCell ref="AF65:AF74"/>
-    <mergeCell ref="AG65:AG74"/>
-    <mergeCell ref="AO65:AO74"/>
-    <mergeCell ref="AY65:AY74"/>
-    <mergeCell ref="AZ65:AZ74"/>
-    <mergeCell ref="BA65:BA74"/>
-    <mergeCell ref="AZ55:AZ64"/>
-    <mergeCell ref="BA55:BA64"/>
-    <mergeCell ref="BB55:BB64"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="G45:G54"/>
-    <mergeCell ref="H45:H54"/>
-    <mergeCell ref="I45:I54"/>
-    <mergeCell ref="W45:W54"/>
-    <mergeCell ref="X45:X54"/>
-    <mergeCell ref="AF45:AF54"/>
-    <mergeCell ref="AG45:AG54"/>
-    <mergeCell ref="AO45:AO54"/>
-    <mergeCell ref="AY45:AY54"/>
-    <mergeCell ref="AZ45:AZ54"/>
-    <mergeCell ref="BA45:BA54"/>
-    <mergeCell ref="BB45:BB54"/>
-    <mergeCell ref="G55:G64"/>
-    <mergeCell ref="H55:H64"/>
-    <mergeCell ref="I55:I64"/>
-    <mergeCell ref="BC45:BC54"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="E35:E44"/>
-    <mergeCell ref="F35:F44"/>
-    <mergeCell ref="G35:G44"/>
-    <mergeCell ref="H35:H44"/>
-    <mergeCell ref="I35:I44"/>
-    <mergeCell ref="W35:W44"/>
-    <mergeCell ref="X35:X44"/>
-    <mergeCell ref="AF35:AF44"/>
-    <mergeCell ref="AG35:AG44"/>
-    <mergeCell ref="AO35:AO44"/>
-    <mergeCell ref="AY35:AY44"/>
-    <mergeCell ref="AZ35:AZ44"/>
-    <mergeCell ref="BA35:BA44"/>
-    <mergeCell ref="BB35:BB44"/>
-    <mergeCell ref="BC35:BC44"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="E25:E34"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="G25:G34"/>
-    <mergeCell ref="H25:H34"/>
-    <mergeCell ref="I25:I34"/>
-    <mergeCell ref="W25:W34"/>
-    <mergeCell ref="X25:X34"/>
-    <mergeCell ref="AF25:AF34"/>
-    <mergeCell ref="AG25:AG34"/>
-    <mergeCell ref="AO25:AO34"/>
-    <mergeCell ref="AY25:AY34"/>
-    <mergeCell ref="AZ25:AZ34"/>
-    <mergeCell ref="BA25:BA34"/>
-    <mergeCell ref="BB25:BB34"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="F15:F24"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="W15:W24"/>
-    <mergeCell ref="X15:X24"/>
-    <mergeCell ref="AF15:AF24"/>
-    <mergeCell ref="AG15:AG24"/>
-    <mergeCell ref="BC25:BC34"/>
-    <mergeCell ref="AO15:AO24"/>
-    <mergeCell ref="AY15:AY24"/>
-    <mergeCell ref="AZ15:AZ24"/>
-    <mergeCell ref="BA15:BA24"/>
-    <mergeCell ref="BB15:BB24"/>
-    <mergeCell ref="BC15:BC24"/>
+    <mergeCell ref="BH15:BH24"/>
+    <mergeCell ref="BI15:BI24"/>
+    <mergeCell ref="BJ15:BJ24"/>
+    <mergeCell ref="BH25:BH34"/>
+    <mergeCell ref="BI25:BI34"/>
+    <mergeCell ref="BJ25:BJ34"/>
+    <mergeCell ref="BH35:BH44"/>
+    <mergeCell ref="BI35:BI44"/>
+    <mergeCell ref="BJ35:BJ44"/>
+    <mergeCell ref="BH45:BH54"/>
+    <mergeCell ref="BI45:BI54"/>
+    <mergeCell ref="BJ45:BJ54"/>
+    <mergeCell ref="BH55:BH64"/>
+    <mergeCell ref="BI55:BI64"/>
+    <mergeCell ref="BJ55:BJ64"/>
+    <mergeCell ref="BH65:BH74"/>
+    <mergeCell ref="BI65:BI74"/>
+    <mergeCell ref="BJ65:BJ74"/>
+    <mergeCell ref="BH75:BH84"/>
+    <mergeCell ref="BI75:BI84"/>
+    <mergeCell ref="BJ75:BJ84"/>
+    <mergeCell ref="BH85:BH94"/>
+    <mergeCell ref="BI85:BI94"/>
+    <mergeCell ref="BJ85:BJ94"/>
+    <mergeCell ref="BH95:BH104"/>
+    <mergeCell ref="BI95:BI104"/>
+    <mergeCell ref="BJ95:BJ104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -14691,11 +14709,8 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You have to select a choice from the pre-defined list." promptTitle="List of choice" prompt="Please select a choice from that list." xr:uid="{00000000-0002-0000-0000-000016000000}">
           <x14:formula1>
-            <xm:f>'Pre-defined lists'!$A$2:$A$23</xm:f>
+            <xm:f>'Pre-defined lists'!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
           <xm:sqref>U15:U104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You have to select a choice from the pre-defined list." promptTitle="List of choice" prompt="Please select a choice from that list." xr:uid="{00000000-0002-0000-0000-000017000000}">
@@ -14826,7 +14841,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You have to select a choice from the pre-defined list." promptTitle="List of choice" prompt="Please select a choice from that list." xr:uid="{CA0E2B48-1442-0848-96EA-6FFB4BA00C39}">
           <x14:formula1>
-            <xm:f>'Pre-defined lists'!$G$2:$G$7</xm:f>
+            <xm:f>'Pre-defined lists'!$G$2:$G$8</xm:f>
           </x14:formula1>
           <xm:sqref>D15:D104</xm:sqref>
         </x14:dataValidation>
@@ -14846,8 +14861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14960,7 +14975,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" s="58" t="s">
         <v>88</v>
@@ -15037,7 +15052,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>108</v>
@@ -15114,7 +15129,7 @@
         <v>128</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="H4" s="58" t="s">
         <v>129</v>
@@ -15187,7 +15202,7 @@
         <v>148</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="H5" s="58" t="s">
         <v>149</v>
@@ -15250,7 +15265,7 @@
         <v>163</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="H6" s="58" t="s">
         <v>164</v>
@@ -15305,7 +15320,7 @@
         <v>175</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>559</v>
+        <v>199</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
@@ -15357,7 +15372,9 @@
       <c r="F8" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58" t="s">
+        <v>559</v>
+      </c>
       <c r="H8" s="58"/>
       <c r="I8" s="58" t="s">
         <v>188</v>
@@ -15939,7 +15956,9 @@
       <c r="Y23" s="58"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
+      <c r="A24" s="58" t="s">
+        <v>571</v>
+      </c>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58" t="s">
@@ -15970,7 +15989,9 @@
       <c r="Y24" s="58"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
+      <c r="A25" s="58" t="s">
+        <v>572</v>
+      </c>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
       <c r="D25" s="58" t="s">
@@ -16001,7 +16022,9 @@
       <c r="Y25" s="58"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
+      <c r="A26" s="58" t="s">
+        <v>573</v>
+      </c>
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
       <c r="D26" s="58" t="s">
@@ -16032,7 +16055,9 @@
       <c r="Y26" s="58"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
+      <c r="A27" s="58" t="s">
+        <v>574</v>
+      </c>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58" t="s">
@@ -16063,7 +16088,9 @@
       <c r="Y27" s="58"/>
     </row>
     <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
+      <c r="A28" s="58" t="s">
+        <v>575</v>
+      </c>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58" t="s">
@@ -16094,7 +16121,9 @@
       <c r="Y28" s="58"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="58" t="s">
+        <v>576</v>
+      </c>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58" t="s">
